--- a/ErgebnisseNL.xlsx
+++ b/ErgebnisseNL.xlsx
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="F2">
-        <v>4446.0</v>
+        <v>3276.0</v>
       </c>
       <c r="G2">
         <v>0.0</v>
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="I2">
-        <v>3919.1</v>
+        <v>5039.1</v>
       </c>
       <c r="J2">
         <v>0.0</v>
@@ -509,7 +509,7 @@
         <v>0.0</v>
       </c>
       <c r="N2">
-        <v>950.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="F3">
-        <v>4446.0</v>
+        <v>3276.0</v>
       </c>
       <c r="G3">
         <v>0.0</v>
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="I3">
-        <v>3803.1</v>
+        <v>4923.1</v>
       </c>
       <c r="J3">
         <v>0.0</v>
@@ -553,7 +553,7 @@
         <v>0.0</v>
       </c>
       <c r="N3">
-        <v>950.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="F4">
-        <v>4446.0</v>
+        <v>3276.0</v>
       </c>
       <c r="G4">
         <v>0.0</v>
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="I4">
-        <v>3453.1</v>
+        <v>4573.1</v>
       </c>
       <c r="J4">
         <v>0.0</v>
@@ -597,7 +597,7 @@
         <v>0.0</v>
       </c>
       <c r="N4">
-        <v>950.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="F5">
-        <v>4446.0</v>
+        <v>3276.0</v>
       </c>
       <c r="G5">
         <v>0.0</v>
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="I5">
-        <v>3094.1</v>
+        <v>4214.1</v>
       </c>
       <c r="J5">
         <v>0.0</v>
@@ -641,7 +641,7 @@
         <v>0.0</v>
       </c>
       <c r="N5">
-        <v>950.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="F6">
-        <v>4446.0</v>
+        <v>3276.0</v>
       </c>
       <c r="G6">
         <v>0.0</v>
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="I6">
-        <v>2784.1</v>
+        <v>3904.1</v>
       </c>
       <c r="J6">
         <v>0.0</v>
@@ -685,7 +685,7 @@
         <v>0.0</v>
       </c>
       <c r="N6">
-        <v>950.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="F7">
-        <v>4446.0</v>
+        <v>3276.0</v>
       </c>
       <c r="G7">
         <v>0.0</v>
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="I7">
-        <v>2734.1</v>
+        <v>3854.1</v>
       </c>
       <c r="J7">
         <v>0.0</v>
@@ -729,7 +729,7 @@
         <v>0.0</v>
       </c>
       <c r="N7">
-        <v>950.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="F8">
-        <v>4446.0</v>
+        <v>3276.0</v>
       </c>
       <c r="G8">
         <v>0.0</v>
@@ -758,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="I8">
-        <v>2948.1</v>
+        <v>4068.1</v>
       </c>
       <c r="J8">
         <v>0.0</v>
@@ -773,7 +773,7 @@
         <v>0.0</v>
       </c>
       <c r="N8">
-        <v>950.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="F9">
-        <v>4446.0</v>
+        <v>3276.0</v>
       </c>
       <c r="G9">
         <v>0.0</v>
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="I9">
-        <v>3190.1</v>
+        <v>4310.1</v>
       </c>
       <c r="J9">
         <v>0.0</v>
@@ -817,7 +817,7 @@
         <v>0.0</v>
       </c>
       <c r="N9">
-        <v>950.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="F10">
-        <v>4446.0</v>
+        <v>3276.0</v>
       </c>
       <c r="G10">
         <v>0.0</v>
@@ -846,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="I10">
-        <v>3525.1</v>
+        <v>4645.1</v>
       </c>
       <c r="J10">
         <v>0.0</v>
@@ -861,7 +861,7 @@
         <v>0.0</v>
       </c>
       <c r="N10">
-        <v>950.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="F11">
-        <v>4446.0</v>
+        <v>3276.0</v>
       </c>
       <c r="G11">
         <v>0.0</v>
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="I11">
-        <v>4059.1</v>
+        <v>5179.1</v>
       </c>
       <c r="J11">
         <v>0.0</v>
@@ -905,7 +905,7 @@
         <v>0.0</v>
       </c>
       <c r="N11">
-        <v>950.0</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>

--- a/ErgebnisseNL.xlsx
+++ b/ErgebnisseNL.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Kernenergie</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Wasserkraft</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>NL</t>
   </si>
 </sst>
 </file>
@@ -418,13 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,8 +476,17 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>457.9</v>
       </c>
@@ -485,7 +503,7 @@
         <v>0.0</v>
       </c>
       <c r="F2">
-        <v>3276.0</v>
+        <v>4446.0</v>
       </c>
       <c r="G2">
         <v>0.0</v>
@@ -494,7 +512,7 @@
         <v>0.0</v>
       </c>
       <c r="I2">
-        <v>5039.1</v>
+        <v>2459.1</v>
       </c>
       <c r="J2">
         <v>0.0</v>
@@ -509,10 +527,19 @@
         <v>0.0</v>
       </c>
       <c r="N2">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.0</v>
+      </c>
+      <c r="O2">
+        <v>2400.0</v>
+      </c>
+      <c r="P2">
+        <v>10.0</v>
+      </c>
+      <c r="Q2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>457.9</v>
       </c>
@@ -529,7 +556,7 @@
         <v>0.0</v>
       </c>
       <c r="F3">
-        <v>3276.0</v>
+        <v>4446.0</v>
       </c>
       <c r="G3">
         <v>0.0</v>
@@ -538,7 +565,7 @@
         <v>0.0</v>
       </c>
       <c r="I3">
-        <v>4923.1</v>
+        <v>2343.1</v>
       </c>
       <c r="J3">
         <v>0.0</v>
@@ -553,10 +580,19 @@
         <v>0.0</v>
       </c>
       <c r="N3">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.0</v>
+      </c>
+      <c r="O3">
+        <v>2400.0</v>
+      </c>
+      <c r="P3">
+        <v>10.0</v>
+      </c>
+      <c r="Q3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>457.9</v>
       </c>
@@ -573,7 +609,7 @@
         <v>0.0</v>
       </c>
       <c r="F4">
-        <v>3276.0</v>
+        <v>4446.0</v>
       </c>
       <c r="G4">
         <v>0.0</v>
@@ -582,7 +618,7 @@
         <v>0.0</v>
       </c>
       <c r="I4">
-        <v>4573.1</v>
+        <v>1993.1</v>
       </c>
       <c r="J4">
         <v>0.0</v>
@@ -597,10 +633,19 @@
         <v>0.0</v>
       </c>
       <c r="N4">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.0</v>
+      </c>
+      <c r="O4">
+        <v>2400.0</v>
+      </c>
+      <c r="P4">
+        <v>10.0</v>
+      </c>
+      <c r="Q4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>457.9</v>
       </c>
@@ -617,7 +662,7 @@
         <v>0.0</v>
       </c>
       <c r="F5">
-        <v>3276.0</v>
+        <v>4446.0</v>
       </c>
       <c r="G5">
         <v>0.0</v>
@@ -626,7 +671,7 @@
         <v>0.0</v>
       </c>
       <c r="I5">
-        <v>4214.1</v>
+        <v>1634.1</v>
       </c>
       <c r="J5">
         <v>0.0</v>
@@ -641,10 +686,19 @@
         <v>0.0</v>
       </c>
       <c r="N5">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.0</v>
+      </c>
+      <c r="O5">
+        <v>2400.0</v>
+      </c>
+      <c r="P5">
+        <v>10.0</v>
+      </c>
+      <c r="Q5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>457.9</v>
       </c>
@@ -661,7 +715,7 @@
         <v>0.0</v>
       </c>
       <c r="F6">
-        <v>3276.0</v>
+        <v>4446.0</v>
       </c>
       <c r="G6">
         <v>0.0</v>
@@ -670,7 +724,7 @@
         <v>0.0</v>
       </c>
       <c r="I6">
-        <v>3904.1</v>
+        <v>1324.1</v>
       </c>
       <c r="J6">
         <v>0.0</v>
@@ -685,10 +739,19 @@
         <v>0.0</v>
       </c>
       <c r="N6">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.0</v>
+      </c>
+      <c r="O6">
+        <v>2400.0</v>
+      </c>
+      <c r="P6">
+        <v>10.0</v>
+      </c>
+      <c r="Q6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>457.9</v>
       </c>
@@ -705,7 +768,7 @@
         <v>0.0</v>
       </c>
       <c r="F7">
-        <v>3276.0</v>
+        <v>4446.0</v>
       </c>
       <c r="G7">
         <v>0.0</v>
@@ -714,7 +777,7 @@
         <v>0.0</v>
       </c>
       <c r="I7">
-        <v>3854.1</v>
+        <v>1274.1</v>
       </c>
       <c r="J7">
         <v>0.0</v>
@@ -729,10 +792,19 @@
         <v>0.0</v>
       </c>
       <c r="N7">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0.0</v>
+      </c>
+      <c r="O7">
+        <v>2400.0</v>
+      </c>
+      <c r="P7">
+        <v>10.0</v>
+      </c>
+      <c r="Q7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>457.9</v>
       </c>
@@ -749,7 +821,7 @@
         <v>0.0</v>
       </c>
       <c r="F8">
-        <v>3276.0</v>
+        <v>4446.0</v>
       </c>
       <c r="G8">
         <v>0.0</v>
@@ -758,7 +830,7 @@
         <v>0.0</v>
       </c>
       <c r="I8">
-        <v>4068.1</v>
+        <v>1488.1</v>
       </c>
       <c r="J8">
         <v>0.0</v>
@@ -773,10 +845,19 @@
         <v>0.0</v>
       </c>
       <c r="N8">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.0</v>
+      </c>
+      <c r="O8">
+        <v>2400.0</v>
+      </c>
+      <c r="P8">
+        <v>10.0</v>
+      </c>
+      <c r="Q8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>457.9</v>
       </c>
@@ -793,7 +874,7 @@
         <v>0.0</v>
       </c>
       <c r="F9">
-        <v>3276.0</v>
+        <v>4446.0</v>
       </c>
       <c r="G9">
         <v>0.0</v>
@@ -802,7 +883,7 @@
         <v>0.0</v>
       </c>
       <c r="I9">
-        <v>4310.1</v>
+        <v>1730.1</v>
       </c>
       <c r="J9">
         <v>0.0</v>
@@ -817,10 +898,19 @@
         <v>0.0</v>
       </c>
       <c r="N9">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.0</v>
+      </c>
+      <c r="O9">
+        <v>2400.0</v>
+      </c>
+      <c r="P9">
+        <v>10.0</v>
+      </c>
+      <c r="Q9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>457.9</v>
       </c>
@@ -837,7 +927,7 @@
         <v>0.0</v>
       </c>
       <c r="F10">
-        <v>3276.0</v>
+        <v>4446.0</v>
       </c>
       <c r="G10">
         <v>0.0</v>
@@ -846,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="I10">
-        <v>4645.1</v>
+        <v>2064.9060000000004</v>
       </c>
       <c r="J10">
         <v>0.0</v>
@@ -855,16 +945,25 @@
         <v>1782.0</v>
       </c>
       <c r="L10">
-        <v>0.0</v>
+        <v>0.194</v>
       </c>
       <c r="M10">
         <v>0.0</v>
       </c>
       <c r="N10">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.0</v>
+      </c>
+      <c r="O10">
+        <v>2400.0</v>
+      </c>
+      <c r="P10">
+        <v>10.0</v>
+      </c>
+      <c r="Q10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>457.9</v>
       </c>
@@ -881,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="F11">
-        <v>3276.0</v>
+        <v>4446.0</v>
       </c>
       <c r="G11">
         <v>0.0</v>
@@ -890,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="I11">
-        <v>5179.1</v>
+        <v>2597.753547850001</v>
       </c>
       <c r="J11">
         <v>0.0</v>
@@ -899,13 +998,764 @@
         <v>1550.0</v>
       </c>
       <c r="L11">
-        <v>0.0</v>
+        <v>1.34645215</v>
       </c>
       <c r="M11">
         <v>0.0</v>
       </c>
       <c r="N11">
-        <v>1000.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="O11">
+        <v>2400.0</v>
+      </c>
+      <c r="P11">
+        <v>10.0</v>
+      </c>
+      <c r="Q11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>457.9</v>
+      </c>
+      <c r="B12">
+        <v>0.0</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>0.0</v>
+      </c>
+      <c r="E12">
+        <v>0.0</v>
+      </c>
+      <c r="F12">
+        <v>4446.0</v>
+      </c>
+      <c r="G12">
+        <v>0.0</v>
+      </c>
+      <c r="H12">
+        <v>0.0</v>
+      </c>
+      <c r="I12">
+        <v>2958.9382617200004</v>
+      </c>
+      <c r="J12">
+        <v>0.0</v>
+      </c>
+      <c r="K12">
+        <v>1561.0</v>
+      </c>
+      <c r="L12">
+        <v>3.16173828</v>
+      </c>
+      <c r="M12">
+        <v>0.0</v>
+      </c>
+      <c r="N12">
+        <v>0.0</v>
+      </c>
+      <c r="O12">
+        <v>2400.0</v>
+      </c>
+      <c r="P12">
+        <v>10.0</v>
+      </c>
+      <c r="Q12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>457.9</v>
+      </c>
+      <c r="B13">
+        <v>0.0</v>
+      </c>
+      <c r="C13">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>0.0</v>
+      </c>
+      <c r="E13">
+        <v>0.0</v>
+      </c>
+      <c r="F13">
+        <v>4446.0</v>
+      </c>
+      <c r="G13">
+        <v>0.0</v>
+      </c>
+      <c r="H13">
+        <v>0.0</v>
+      </c>
+      <c r="I13">
+        <v>3315.3585478500004</v>
+      </c>
+      <c r="J13">
+        <v>0.0</v>
+      </c>
+      <c r="K13">
+        <v>1624.0</v>
+      </c>
+      <c r="L13">
+        <v>4.74145215</v>
+      </c>
+      <c r="M13">
+        <v>0.0</v>
+      </c>
+      <c r="N13">
+        <v>0.0</v>
+      </c>
+      <c r="O13">
+        <v>2400.0</v>
+      </c>
+      <c r="P13">
+        <v>10.0</v>
+      </c>
+      <c r="Q13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>457.9</v>
+      </c>
+      <c r="B14">
+        <v>0.0</v>
+      </c>
+      <c r="C14">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>0.0</v>
+      </c>
+      <c r="E14">
+        <v>0.0</v>
+      </c>
+      <c r="F14">
+        <v>4446.0</v>
+      </c>
+      <c r="G14">
+        <v>0.0</v>
+      </c>
+      <c r="H14">
+        <v>0.0</v>
+      </c>
+      <c r="I14">
+        <v>3536.9451425799994</v>
+      </c>
+      <c r="J14">
+        <v>0.0</v>
+      </c>
+      <c r="K14">
+        <v>1637.0</v>
+      </c>
+      <c r="L14">
+        <v>5.15485742</v>
+      </c>
+      <c r="M14">
+        <v>0.0</v>
+      </c>
+      <c r="N14">
+        <v>0.0</v>
+      </c>
+      <c r="O14">
+        <v>2400.0</v>
+      </c>
+      <c r="P14">
+        <v>10.0</v>
+      </c>
+      <c r="Q14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>457.9</v>
+      </c>
+      <c r="B15">
+        <v>0.0</v>
+      </c>
+      <c r="C15">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>0.0</v>
+      </c>
+      <c r="E15">
+        <v>0.0</v>
+      </c>
+      <c r="F15">
+        <v>4446.0</v>
+      </c>
+      <c r="G15">
+        <v>0.0</v>
+      </c>
+      <c r="H15">
+        <v>0.0</v>
+      </c>
+      <c r="I15">
+        <v>3596.4670956999994</v>
+      </c>
+      <c r="J15">
+        <v>0.0</v>
+      </c>
+      <c r="K15">
+        <v>1695.0</v>
+      </c>
+      <c r="L15">
+        <v>4.6329043</v>
+      </c>
+      <c r="M15">
+        <v>0.0</v>
+      </c>
+      <c r="N15">
+        <v>0.0</v>
+      </c>
+      <c r="O15">
+        <v>2400.0</v>
+      </c>
+      <c r="P15">
+        <v>10.0</v>
+      </c>
+      <c r="Q15">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>457.9</v>
+      </c>
+      <c r="B16">
+        <v>0.0</v>
+      </c>
+      <c r="C16">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>0.0</v>
+      </c>
+      <c r="E16">
+        <v>0.0</v>
+      </c>
+      <c r="F16">
+        <v>4446.0</v>
+      </c>
+      <c r="G16">
+        <v>0.0</v>
+      </c>
+      <c r="H16">
+        <v>0.0</v>
+      </c>
+      <c r="I16">
+        <v>3470.1045478499996</v>
+      </c>
+      <c r="J16">
+        <v>0.0</v>
+      </c>
+      <c r="K16">
+        <v>1800.0</v>
+      </c>
+      <c r="L16">
+        <v>2.99545215</v>
+      </c>
+      <c r="M16">
+        <v>0.0</v>
+      </c>
+      <c r="N16">
+        <v>0.0</v>
+      </c>
+      <c r="O16">
+        <v>2400.0</v>
+      </c>
+      <c r="P16">
+        <v>10.0</v>
+      </c>
+      <c r="Q16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>457.9</v>
+      </c>
+      <c r="B17">
+        <v>0.0</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>0.0</v>
+      </c>
+      <c r="E17">
+        <v>0.0</v>
+      </c>
+      <c r="F17">
+        <v>4446.0</v>
+      </c>
+      <c r="G17">
+        <v>0.0</v>
+      </c>
+      <c r="H17">
+        <v>0.0</v>
+      </c>
+      <c r="I17">
+        <v>3539.0722617200004</v>
+      </c>
+      <c r="J17">
+        <v>0.0</v>
+      </c>
+      <c r="K17">
+        <v>1855.0</v>
+      </c>
+      <c r="L17">
+        <v>1.0277382800000001</v>
+      </c>
+      <c r="M17">
+        <v>0.0</v>
+      </c>
+      <c r="N17">
+        <v>0.0</v>
+      </c>
+      <c r="O17">
+        <v>2400.0</v>
+      </c>
+      <c r="P17">
+        <v>10.0</v>
+      </c>
+      <c r="Q17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>457.9</v>
+      </c>
+      <c r="B18">
+        <v>0.0</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>0.0</v>
+      </c>
+      <c r="E18">
+        <v>0.0</v>
+      </c>
+      <c r="F18">
+        <v>4446.0</v>
+      </c>
+      <c r="G18">
+        <v>0.0</v>
+      </c>
+      <c r="H18">
+        <v>0.0</v>
+      </c>
+      <c r="I18">
+        <v>3838.0491904299993</v>
+      </c>
+      <c r="J18">
+        <v>0.0</v>
+      </c>
+      <c r="K18">
+        <v>1925.0</v>
+      </c>
+      <c r="L18">
+        <v>0.05080957</v>
+      </c>
+      <c r="M18">
+        <v>0.0</v>
+      </c>
+      <c r="N18">
+        <v>0.0</v>
+      </c>
+      <c r="O18">
+        <v>2400.0</v>
+      </c>
+      <c r="P18">
+        <v>10.0</v>
+      </c>
+      <c r="Q18">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>457.9</v>
+      </c>
+      <c r="B19">
+        <v>0.0</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>0.0</v>
+      </c>
+      <c r="E19">
+        <v>0.0</v>
+      </c>
+      <c r="F19">
+        <v>4446.0</v>
+      </c>
+      <c r="G19">
+        <v>0.0</v>
+      </c>
+      <c r="H19">
+        <v>0.0</v>
+      </c>
+      <c r="I19">
+        <v>4772.1</v>
+      </c>
+      <c r="J19">
+        <v>0.0</v>
+      </c>
+      <c r="K19">
+        <v>1993.0</v>
+      </c>
+      <c r="L19">
+        <v>0.0</v>
+      </c>
+      <c r="M19">
+        <v>0.0</v>
+      </c>
+      <c r="N19">
+        <v>0.0</v>
+      </c>
+      <c r="O19">
+        <v>2400.0</v>
+      </c>
+      <c r="P19">
+        <v>10.0</v>
+      </c>
+      <c r="Q19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>457.9</v>
+      </c>
+      <c r="B20">
+        <v>0.0</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>0.0</v>
+      </c>
+      <c r="E20">
+        <v>0.0</v>
+      </c>
+      <c r="F20">
+        <v>4446.0</v>
+      </c>
+      <c r="G20">
+        <v>0.0</v>
+      </c>
+      <c r="H20">
+        <v>0.0</v>
+      </c>
+      <c r="I20">
+        <v>4607.1</v>
+      </c>
+      <c r="J20">
+        <v>0.0</v>
+      </c>
+      <c r="K20">
+        <v>2029.0</v>
+      </c>
+      <c r="L20">
+        <v>0.0</v>
+      </c>
+      <c r="M20">
+        <v>0.0</v>
+      </c>
+      <c r="N20">
+        <v>0.0</v>
+      </c>
+      <c r="O20">
+        <v>2400.0</v>
+      </c>
+      <c r="P20">
+        <v>10.0</v>
+      </c>
+      <c r="Q20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>457.9</v>
+      </c>
+      <c r="B21">
+        <v>0.0</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>0.0</v>
+      </c>
+      <c r="E21">
+        <v>0.0</v>
+      </c>
+      <c r="F21">
+        <v>4446.0</v>
+      </c>
+      <c r="G21">
+        <v>0.0</v>
+      </c>
+      <c r="H21">
+        <v>0.0</v>
+      </c>
+      <c r="I21">
+        <v>4358.1</v>
+      </c>
+      <c r="J21">
+        <v>0.0</v>
+      </c>
+      <c r="K21">
+        <v>2006.0</v>
+      </c>
+      <c r="L21">
+        <v>0.0</v>
+      </c>
+      <c r="M21">
+        <v>0.0</v>
+      </c>
+      <c r="N21">
+        <v>0.0</v>
+      </c>
+      <c r="O21">
+        <v>2400.0</v>
+      </c>
+      <c r="P21">
+        <v>10.0</v>
+      </c>
+      <c r="Q21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>457.9</v>
+      </c>
+      <c r="B22">
+        <v>0.0</v>
+      </c>
+      <c r="C22">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>0.0</v>
+      </c>
+      <c r="E22">
+        <v>0.0</v>
+      </c>
+      <c r="F22">
+        <v>4446.0</v>
+      </c>
+      <c r="G22">
+        <v>0.0</v>
+      </c>
+      <c r="H22">
+        <v>0.0</v>
+      </c>
+      <c r="I22">
+        <v>3995.1</v>
+      </c>
+      <c r="J22">
+        <v>0.0</v>
+      </c>
+      <c r="K22">
+        <v>2002.0</v>
+      </c>
+      <c r="L22">
+        <v>0.0</v>
+      </c>
+      <c r="M22">
+        <v>0.0</v>
+      </c>
+      <c r="N22">
+        <v>0.0</v>
+      </c>
+      <c r="O22">
+        <v>2400.0</v>
+      </c>
+      <c r="P22">
+        <v>10.0</v>
+      </c>
+      <c r="Q22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>457.9</v>
+      </c>
+      <c r="B23">
+        <v>0.0</v>
+      </c>
+      <c r="C23">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>0.0</v>
+      </c>
+      <c r="E23">
+        <v>0.0</v>
+      </c>
+      <c r="F23">
+        <v>4446.0</v>
+      </c>
+      <c r="G23">
+        <v>0.0</v>
+      </c>
+      <c r="H23">
+        <v>0.0</v>
+      </c>
+      <c r="I23">
+        <v>3429.1</v>
+      </c>
+      <c r="J23">
+        <v>0.0</v>
+      </c>
+      <c r="K23">
+        <v>2019.0</v>
+      </c>
+      <c r="L23">
+        <v>0.0</v>
+      </c>
+      <c r="M23">
+        <v>0.0</v>
+      </c>
+      <c r="N23">
+        <v>0.0</v>
+      </c>
+      <c r="O23">
+        <v>2400.0</v>
+      </c>
+      <c r="P23">
+        <v>10.0</v>
+      </c>
+      <c r="Q23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>457.9</v>
+      </c>
+      <c r="B24">
+        <v>0.0</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>0.0</v>
+      </c>
+      <c r="E24">
+        <v>0.0</v>
+      </c>
+      <c r="F24">
+        <v>4446.0</v>
+      </c>
+      <c r="G24">
+        <v>0.0</v>
+      </c>
+      <c r="H24">
+        <v>0.0</v>
+      </c>
+      <c r="I24">
+        <v>2906.1</v>
+      </c>
+      <c r="J24">
+        <v>0.0</v>
+      </c>
+      <c r="K24">
+        <v>2002.0</v>
+      </c>
+      <c r="L24">
+        <v>0.0</v>
+      </c>
+      <c r="M24">
+        <v>0.0</v>
+      </c>
+      <c r="N24">
+        <v>0.0</v>
+      </c>
+      <c r="O24">
+        <v>2400.0</v>
+      </c>
+      <c r="P24">
+        <v>10.0</v>
+      </c>
+      <c r="Q24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>457.9</v>
+      </c>
+      <c r="B25">
+        <v>0.0</v>
+      </c>
+      <c r="C25">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <v>0.0</v>
+      </c>
+      <c r="E25">
+        <v>0.0</v>
+      </c>
+      <c r="F25">
+        <v>4446.0</v>
+      </c>
+      <c r="G25">
+        <v>0.0</v>
+      </c>
+      <c r="H25">
+        <v>0.0</v>
+      </c>
+      <c r="I25">
+        <v>2237.1</v>
+      </c>
+      <c r="J25">
+        <v>0.0</v>
+      </c>
+      <c r="K25">
+        <v>1971.0</v>
+      </c>
+      <c r="L25">
+        <v>0.0</v>
+      </c>
+      <c r="M25">
+        <v>0.0</v>
+      </c>
+      <c r="N25">
+        <v>0.0</v>
+      </c>
+      <c r="O25">
+        <v>2400.0</v>
+      </c>
+      <c r="P25">
+        <v>10.0</v>
+      </c>
+      <c r="Q25">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/ErgebnisseNL.xlsx
+++ b/ErgebnisseNL.xlsx
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,7 +512,7 @@
         <v>0.0</v>
       </c>
       <c r="I2">
-        <v>2459.1</v>
+        <v>1327.1</v>
       </c>
       <c r="J2">
         <v>0.0</v>
@@ -527,13 +527,13 @@
         <v>0.0</v>
       </c>
       <c r="N2">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O2">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P2">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q2">
         <v>0.0</v>
@@ -565,7 +565,7 @@
         <v>0.0</v>
       </c>
       <c r="I3">
-        <v>2343.1</v>
+        <v>1211.1</v>
       </c>
       <c r="J3">
         <v>0.0</v>
@@ -580,13 +580,13 @@
         <v>0.0</v>
       </c>
       <c r="N3">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O3">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P3">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q3">
         <v>0.0</v>
@@ -618,7 +618,7 @@
         <v>0.0</v>
       </c>
       <c r="I4">
-        <v>1993.1</v>
+        <v>861.1</v>
       </c>
       <c r="J4">
         <v>0.0</v>
@@ -633,13 +633,13 @@
         <v>0.0</v>
       </c>
       <c r="N4">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O4">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P4">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q4">
         <v>0.0</v>
@@ -671,7 +671,7 @@
         <v>0.0</v>
       </c>
       <c r="I5">
-        <v>1634.1</v>
+        <v>502.1</v>
       </c>
       <c r="J5">
         <v>0.0</v>
@@ -686,13 +686,13 @@
         <v>0.0</v>
       </c>
       <c r="N5">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O5">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P5">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q5">
         <v>0.0</v>
@@ -724,7 +724,7 @@
         <v>0.0</v>
       </c>
       <c r="I6">
-        <v>1324.1</v>
+        <v>192.10000000000002</v>
       </c>
       <c r="J6">
         <v>0.0</v>
@@ -739,13 +739,13 @@
         <v>0.0</v>
       </c>
       <c r="N6">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O6">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P6">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q6">
         <v>0.0</v>
@@ -777,7 +777,7 @@
         <v>0.0</v>
       </c>
       <c r="I7">
-        <v>1274.1</v>
+        <v>142.10000000000002</v>
       </c>
       <c r="J7">
         <v>0.0</v>
@@ -792,13 +792,13 @@
         <v>0.0</v>
       </c>
       <c r="N7">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O7">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P7">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q7">
         <v>0.0</v>
@@ -830,7 +830,7 @@
         <v>0.0</v>
       </c>
       <c r="I8">
-        <v>1488.1</v>
+        <v>356.1</v>
       </c>
       <c r="J8">
         <v>0.0</v>
@@ -845,13 +845,13 @@
         <v>0.0</v>
       </c>
       <c r="N8">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O8">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P8">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q8">
         <v>0.0</v>
@@ -883,7 +883,7 @@
         <v>0.0</v>
       </c>
       <c r="I9">
-        <v>1730.1</v>
+        <v>598.1</v>
       </c>
       <c r="J9">
         <v>0.0</v>
@@ -898,13 +898,13 @@
         <v>0.0</v>
       </c>
       <c r="N9">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O9">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P9">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q9">
         <v>0.0</v>
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="I10">
-        <v>2064.9060000000004</v>
+        <v>932.9060000000005</v>
       </c>
       <c r="J10">
         <v>0.0</v>
@@ -951,13 +951,13 @@
         <v>0.0</v>
       </c>
       <c r="N10">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O10">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P10">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q10">
         <v>0.0</v>
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="I11">
-        <v>2597.753547850001</v>
+        <v>1465.7535478500008</v>
       </c>
       <c r="J11">
         <v>0.0</v>
@@ -1004,13 +1004,13 @@
         <v>0.0</v>
       </c>
       <c r="N11">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O11">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P11">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q11">
         <v>0.0</v>
@@ -1042,7 +1042,7 @@
         <v>0.0</v>
       </c>
       <c r="I12">
-        <v>2958.9382617200004</v>
+        <v>1826.9382617200004</v>
       </c>
       <c r="J12">
         <v>0.0</v>
@@ -1057,13 +1057,13 @@
         <v>0.0</v>
       </c>
       <c r="N12">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O12">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P12">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q12">
         <v>0.0</v>
@@ -1095,7 +1095,7 @@
         <v>0.0</v>
       </c>
       <c r="I13">
-        <v>3315.3585478500004</v>
+        <v>2183.3585478500004</v>
       </c>
       <c r="J13">
         <v>0.0</v>
@@ -1110,13 +1110,13 @@
         <v>0.0</v>
       </c>
       <c r="N13">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O13">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P13">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q13">
         <v>0.0</v>
@@ -1148,7 +1148,7 @@
         <v>0.0</v>
       </c>
       <c r="I14">
-        <v>3536.9451425799994</v>
+        <v>2404.9451425799994</v>
       </c>
       <c r="J14">
         <v>0.0</v>
@@ -1163,13 +1163,13 @@
         <v>0.0</v>
       </c>
       <c r="N14">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O14">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P14">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q14">
         <v>0.0</v>
@@ -1201,7 +1201,7 @@
         <v>0.0</v>
       </c>
       <c r="I15">
-        <v>3596.4670956999994</v>
+        <v>2464.4670956999994</v>
       </c>
       <c r="J15">
         <v>0.0</v>
@@ -1216,13 +1216,13 @@
         <v>0.0</v>
       </c>
       <c r="N15">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O15">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P15">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q15">
         <v>0.0</v>
@@ -1254,7 +1254,7 @@
         <v>0.0</v>
       </c>
       <c r="I16">
-        <v>3470.1045478499996</v>
+        <v>2338.1045478499996</v>
       </c>
       <c r="J16">
         <v>0.0</v>
@@ -1269,13 +1269,13 @@
         <v>0.0</v>
       </c>
       <c r="N16">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O16">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P16">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q16">
         <v>0.0</v>
@@ -1307,7 +1307,7 @@
         <v>0.0</v>
       </c>
       <c r="I17">
-        <v>3539.0722617200004</v>
+        <v>2407.0722617200004</v>
       </c>
       <c r="J17">
         <v>0.0</v>
@@ -1322,13 +1322,13 @@
         <v>0.0</v>
       </c>
       <c r="N17">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O17">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P17">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q17">
         <v>0.0</v>
@@ -1360,7 +1360,7 @@
         <v>0.0</v>
       </c>
       <c r="I18">
-        <v>3838.0491904299993</v>
+        <v>2706.0491904299993</v>
       </c>
       <c r="J18">
         <v>0.0</v>
@@ -1375,13 +1375,13 @@
         <v>0.0</v>
       </c>
       <c r="N18">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O18">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P18">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q18">
         <v>0.0</v>
@@ -1413,7 +1413,7 @@
         <v>0.0</v>
       </c>
       <c r="I19">
-        <v>4772.1</v>
+        <v>3640.1</v>
       </c>
       <c r="J19">
         <v>0.0</v>
@@ -1428,13 +1428,13 @@
         <v>0.0</v>
       </c>
       <c r="N19">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O19">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P19">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q19">
         <v>0.0</v>
@@ -1466,7 +1466,7 @@
         <v>0.0</v>
       </c>
       <c r="I20">
-        <v>4607.1</v>
+        <v>3475.1</v>
       </c>
       <c r="J20">
         <v>0.0</v>
@@ -1481,13 +1481,13 @@
         <v>0.0</v>
       </c>
       <c r="N20">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O20">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P20">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q20">
         <v>0.0</v>
@@ -1519,7 +1519,7 @@
         <v>0.0</v>
       </c>
       <c r="I21">
-        <v>4358.1</v>
+        <v>3226.1</v>
       </c>
       <c r="J21">
         <v>0.0</v>
@@ -1534,13 +1534,13 @@
         <v>0.0</v>
       </c>
       <c r="N21">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O21">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P21">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q21">
         <v>0.0</v>
@@ -1572,7 +1572,7 @@
         <v>0.0</v>
       </c>
       <c r="I22">
-        <v>3995.1</v>
+        <v>2863.1</v>
       </c>
       <c r="J22">
         <v>0.0</v>
@@ -1587,13 +1587,13 @@
         <v>0.0</v>
       </c>
       <c r="N22">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O22">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P22">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q22">
         <v>0.0</v>
@@ -1625,7 +1625,7 @@
         <v>0.0</v>
       </c>
       <c r="I23">
-        <v>3429.1</v>
+        <v>2297.1</v>
       </c>
       <c r="J23">
         <v>0.0</v>
@@ -1640,13 +1640,13 @@
         <v>0.0</v>
       </c>
       <c r="N23">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O23">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P23">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q23">
         <v>0.0</v>
@@ -1678,7 +1678,7 @@
         <v>0.0</v>
       </c>
       <c r="I24">
-        <v>2906.1</v>
+        <v>1774.1</v>
       </c>
       <c r="J24">
         <v>0.0</v>
@@ -1693,13 +1693,13 @@
         <v>0.0</v>
       </c>
       <c r="N24">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O24">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P24">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q24">
         <v>0.0</v>
@@ -1731,7 +1731,7 @@
         <v>0.0</v>
       </c>
       <c r="I25">
-        <v>2237.1</v>
+        <v>1105.1</v>
       </c>
       <c r="J25">
         <v>0.0</v>
@@ -1746,15 +1746,1287 @@
         <v>0.0</v>
       </c>
       <c r="N25">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="O25">
-        <v>2400.0</v>
+        <v>2160.0</v>
       </c>
       <c r="P25">
-        <v>10.0</v>
+        <v>720.0</v>
       </c>
       <c r="Q25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>457.9</v>
+      </c>
+      <c r="B26">
+        <v>0.0</v>
+      </c>
+      <c r="C26">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>0.0</v>
+      </c>
+      <c r="E26">
+        <v>0.0</v>
+      </c>
+      <c r="F26">
+        <v>4446.0</v>
+      </c>
+      <c r="G26">
+        <v>0.0</v>
+      </c>
+      <c r="H26">
+        <v>0.0</v>
+      </c>
+      <c r="I26">
+        <v>709.1</v>
+      </c>
+      <c r="J26">
+        <v>0.0</v>
+      </c>
+      <c r="K26">
+        <v>1901.0</v>
+      </c>
+      <c r="L26">
+        <v>0.0</v>
+      </c>
+      <c r="M26">
+        <v>0.0</v>
+      </c>
+      <c r="N26">
+        <v>950.0</v>
+      </c>
+      <c r="O26">
+        <v>2160.0</v>
+      </c>
+      <c r="P26">
+        <v>720.0</v>
+      </c>
+      <c r="Q26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>457.9</v>
+      </c>
+      <c r="B27">
+        <v>0.0</v>
+      </c>
+      <c r="C27">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <v>0.0</v>
+      </c>
+      <c r="E27">
+        <v>0.0</v>
+      </c>
+      <c r="F27">
+        <v>4446.0</v>
+      </c>
+      <c r="G27">
+        <v>0.0</v>
+      </c>
+      <c r="H27">
+        <v>0.0</v>
+      </c>
+      <c r="I27">
+        <v>339.1</v>
+      </c>
+      <c r="J27">
+        <v>0.0</v>
+      </c>
+      <c r="K27">
+        <v>1942.0</v>
+      </c>
+      <c r="L27">
+        <v>0.0</v>
+      </c>
+      <c r="M27">
+        <v>0.0</v>
+      </c>
+      <c r="N27">
+        <v>950.0</v>
+      </c>
+      <c r="O27">
+        <v>2160.0</v>
+      </c>
+      <c r="P27">
+        <v>720.0</v>
+      </c>
+      <c r="Q27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>457.9</v>
+      </c>
+      <c r="B28">
+        <v>0.0</v>
+      </c>
+      <c r="C28">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>0.0</v>
+      </c>
+      <c r="E28">
+        <v>0.0</v>
+      </c>
+      <c r="F28">
+        <v>4446.0</v>
+      </c>
+      <c r="G28">
+        <v>0.0</v>
+      </c>
+      <c r="H28">
+        <v>0.0</v>
+      </c>
+      <c r="I28">
+        <v>162.10000000000002</v>
+      </c>
+      <c r="J28">
+        <v>0.0</v>
+      </c>
+      <c r="K28">
+        <v>1965.0</v>
+      </c>
+      <c r="L28">
+        <v>0.0</v>
+      </c>
+      <c r="M28">
+        <v>0.0</v>
+      </c>
+      <c r="N28">
+        <v>950.0</v>
+      </c>
+      <c r="O28">
+        <v>2160.0</v>
+      </c>
+      <c r="P28">
+        <v>720.0</v>
+      </c>
+      <c r="Q28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>457.9</v>
+      </c>
+      <c r="B29">
+        <v>0.0</v>
+      </c>
+      <c r="C29">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>0.0</v>
+      </c>
+      <c r="E29">
+        <v>0.0</v>
+      </c>
+      <c r="F29">
+        <v>4446.0</v>
+      </c>
+      <c r="G29">
+        <v>0.0</v>
+      </c>
+      <c r="H29">
+        <v>0.0</v>
+      </c>
+      <c r="I29">
+        <v>85.10000000000002</v>
+      </c>
+      <c r="J29">
+        <v>0.0</v>
+      </c>
+      <c r="K29">
+        <v>1981.0</v>
+      </c>
+      <c r="L29">
+        <v>0.0</v>
+      </c>
+      <c r="M29">
+        <v>0.0</v>
+      </c>
+      <c r="N29">
+        <v>950.0</v>
+      </c>
+      <c r="O29">
+        <v>2160.0</v>
+      </c>
+      <c r="P29">
+        <v>720.0</v>
+      </c>
+      <c r="Q29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>457.9</v>
+      </c>
+      <c r="B30">
+        <v>0.0</v>
+      </c>
+      <c r="C30">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>0.0</v>
+      </c>
+      <c r="E30">
+        <v>0.0</v>
+      </c>
+      <c r="F30">
+        <v>4446.0</v>
+      </c>
+      <c r="G30">
+        <v>0.0</v>
+      </c>
+      <c r="H30">
+        <v>0.0</v>
+      </c>
+      <c r="I30">
+        <v>232.10000000000002</v>
+      </c>
+      <c r="J30">
+        <v>0.0</v>
+      </c>
+      <c r="K30">
+        <v>1929.0</v>
+      </c>
+      <c r="L30">
+        <v>0.0</v>
+      </c>
+      <c r="M30">
+        <v>0.0</v>
+      </c>
+      <c r="N30">
+        <v>950.0</v>
+      </c>
+      <c r="O30">
+        <v>2160.0</v>
+      </c>
+      <c r="P30">
+        <v>720.0</v>
+      </c>
+      <c r="Q30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>457.9</v>
+      </c>
+      <c r="B31">
+        <v>0.0</v>
+      </c>
+      <c r="C31">
+        <v>0.0</v>
+      </c>
+      <c r="D31">
+        <v>0.0</v>
+      </c>
+      <c r="E31">
+        <v>0.0</v>
+      </c>
+      <c r="F31">
+        <v>4446.0</v>
+      </c>
+      <c r="G31">
+        <v>0.0</v>
+      </c>
+      <c r="H31">
+        <v>0.0</v>
+      </c>
+      <c r="I31">
+        <v>790.1</v>
+      </c>
+      <c r="J31">
+        <v>0.0</v>
+      </c>
+      <c r="K31">
+        <v>1873.0</v>
+      </c>
+      <c r="L31">
+        <v>0.0</v>
+      </c>
+      <c r="M31">
+        <v>0.0</v>
+      </c>
+      <c r="N31">
+        <v>950.0</v>
+      </c>
+      <c r="O31">
+        <v>2160.0</v>
+      </c>
+      <c r="P31">
+        <v>720.0</v>
+      </c>
+      <c r="Q31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>457.9</v>
+      </c>
+      <c r="B32">
+        <v>0.0</v>
+      </c>
+      <c r="C32">
+        <v>0.0</v>
+      </c>
+      <c r="D32">
+        <v>0.0</v>
+      </c>
+      <c r="E32">
+        <v>0.0</v>
+      </c>
+      <c r="F32">
+        <v>4446.0</v>
+      </c>
+      <c r="G32">
+        <v>0.0</v>
+      </c>
+      <c r="H32">
+        <v>0.0</v>
+      </c>
+      <c r="I32">
+        <v>2097.1</v>
+      </c>
+      <c r="J32">
+        <v>0.0</v>
+      </c>
+      <c r="K32">
+        <v>1757.0</v>
+      </c>
+      <c r="L32">
+        <v>0.0</v>
+      </c>
+      <c r="M32">
+        <v>0.0</v>
+      </c>
+      <c r="N32">
+        <v>950.0</v>
+      </c>
+      <c r="O32">
+        <v>2160.0</v>
+      </c>
+      <c r="P32">
+        <v>720.0</v>
+      </c>
+      <c r="Q32">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>457.9</v>
+      </c>
+      <c r="B33">
+        <v>0.0</v>
+      </c>
+      <c r="C33">
+        <v>0.0</v>
+      </c>
+      <c r="D33">
+        <v>0.0</v>
+      </c>
+      <c r="E33">
+        <v>0.0</v>
+      </c>
+      <c r="F33">
+        <v>4446.0</v>
+      </c>
+      <c r="G33">
+        <v>0.0</v>
+      </c>
+      <c r="H33">
+        <v>0.0</v>
+      </c>
+      <c r="I33">
+        <v>3476.1</v>
+      </c>
+      <c r="J33">
+        <v>0.0</v>
+      </c>
+      <c r="K33">
+        <v>1831.0</v>
+      </c>
+      <c r="L33">
+        <v>0.0</v>
+      </c>
+      <c r="M33">
+        <v>0.0</v>
+      </c>
+      <c r="N33">
+        <v>950.0</v>
+      </c>
+      <c r="O33">
+        <v>2160.0</v>
+      </c>
+      <c r="P33">
+        <v>720.0</v>
+      </c>
+      <c r="Q33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>457.9</v>
+      </c>
+      <c r="B34">
+        <v>0.0</v>
+      </c>
+      <c r="C34">
+        <v>0.0</v>
+      </c>
+      <c r="D34">
+        <v>0.0</v>
+      </c>
+      <c r="E34">
+        <v>0.0</v>
+      </c>
+      <c r="F34">
+        <v>4446.0</v>
+      </c>
+      <c r="G34">
+        <v>0.0</v>
+      </c>
+      <c r="H34">
+        <v>0.0</v>
+      </c>
+      <c r="I34">
+        <v>4963.8505712900005</v>
+      </c>
+      <c r="J34">
+        <v>0.0</v>
+      </c>
+      <c r="K34">
+        <v>1620.0</v>
+      </c>
+      <c r="L34">
+        <v>0.24942871</v>
+      </c>
+      <c r="M34">
+        <v>0.0</v>
+      </c>
+      <c r="N34">
+        <v>950.0</v>
+      </c>
+      <c r="O34">
+        <v>2160.0</v>
+      </c>
+      <c r="P34">
+        <v>720.0</v>
+      </c>
+      <c r="Q34">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>457.9</v>
+      </c>
+      <c r="B35">
+        <v>0.0</v>
+      </c>
+      <c r="C35">
+        <v>0.0</v>
+      </c>
+      <c r="D35">
+        <v>0.0</v>
+      </c>
+      <c r="E35">
+        <v>0.0</v>
+      </c>
+      <c r="F35">
+        <v>4446.0</v>
+      </c>
+      <c r="G35">
+        <v>0.0</v>
+      </c>
+      <c r="H35">
+        <v>0.0</v>
+      </c>
+      <c r="I35">
+        <v>5770.6819043</v>
+      </c>
+      <c r="J35">
+        <v>0.0</v>
+      </c>
+      <c r="K35">
+        <v>1493.0</v>
+      </c>
+      <c r="L35">
+        <v>3.4180957000000003</v>
+      </c>
+      <c r="M35">
+        <v>0.0</v>
+      </c>
+      <c r="N35">
+        <v>950.0</v>
+      </c>
+      <c r="O35">
+        <v>2160.0</v>
+      </c>
+      <c r="P35">
+        <v>720.0</v>
+      </c>
+      <c r="Q35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>457.9</v>
+      </c>
+      <c r="B36">
+        <v>0.0</v>
+      </c>
+      <c r="C36">
+        <v>0.0</v>
+      </c>
+      <c r="D36">
+        <v>0.0</v>
+      </c>
+      <c r="E36">
+        <v>0.0</v>
+      </c>
+      <c r="F36">
+        <v>4446.0</v>
+      </c>
+      <c r="G36">
+        <v>0.0</v>
+      </c>
+      <c r="H36">
+        <v>0.0</v>
+      </c>
+      <c r="I36">
+        <v>5945.5200957</v>
+      </c>
+      <c r="J36">
+        <v>0.0</v>
+      </c>
+      <c r="K36">
+        <v>1387.0</v>
+      </c>
+      <c r="L36">
+        <v>9.5799043</v>
+      </c>
+      <c r="M36">
+        <v>0.0</v>
+      </c>
+      <c r="N36">
+        <v>950.0</v>
+      </c>
+      <c r="O36">
+        <v>2160.0</v>
+      </c>
+      <c r="P36">
+        <v>720.0</v>
+      </c>
+      <c r="Q36">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>457.9</v>
+      </c>
+      <c r="B37">
+        <v>0.0</v>
+      </c>
+      <c r="C37">
+        <v>0.0</v>
+      </c>
+      <c r="D37">
+        <v>0.0</v>
+      </c>
+      <c r="E37">
+        <v>0.0</v>
+      </c>
+      <c r="F37">
+        <v>4446.0</v>
+      </c>
+      <c r="G37">
+        <v>0.0</v>
+      </c>
+      <c r="H37">
+        <v>0.0</v>
+      </c>
+      <c r="I37">
+        <v>6134.46916699</v>
+      </c>
+      <c r="J37">
+        <v>0.0</v>
+      </c>
+      <c r="K37">
+        <v>1334.0</v>
+      </c>
+      <c r="L37">
+        <v>14.630833009999998</v>
+      </c>
+      <c r="M37">
+        <v>0.0</v>
+      </c>
+      <c r="N37">
+        <v>950.0</v>
+      </c>
+      <c r="O37">
+        <v>2160.0</v>
+      </c>
+      <c r="P37">
+        <v>720.0</v>
+      </c>
+      <c r="Q37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>457.9</v>
+      </c>
+      <c r="B38">
+        <v>0.0</v>
+      </c>
+      <c r="C38">
+        <v>0.0</v>
+      </c>
+      <c r="D38">
+        <v>0.0</v>
+      </c>
+      <c r="E38">
+        <v>0.0</v>
+      </c>
+      <c r="F38">
+        <v>4446.0</v>
+      </c>
+      <c r="G38">
+        <v>0.0</v>
+      </c>
+      <c r="H38">
+        <v>0.0</v>
+      </c>
+      <c r="I38">
+        <v>6115.097309570001</v>
+      </c>
+      <c r="J38">
+        <v>0.0</v>
+      </c>
+      <c r="K38">
+        <v>1280.0</v>
+      </c>
+      <c r="L38">
+        <v>16.00269043</v>
+      </c>
+      <c r="M38">
+        <v>0.0</v>
+      </c>
+      <c r="N38">
+        <v>950.0</v>
+      </c>
+      <c r="O38">
+        <v>2160.0</v>
+      </c>
+      <c r="P38">
+        <v>720.0</v>
+      </c>
+      <c r="Q38">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>457.9</v>
+      </c>
+      <c r="B39">
+        <v>0.0</v>
+      </c>
+      <c r="C39">
+        <v>0.0</v>
+      </c>
+      <c r="D39">
+        <v>0.0</v>
+      </c>
+      <c r="E39">
+        <v>0.0</v>
+      </c>
+      <c r="F39">
+        <v>4446.0</v>
+      </c>
+      <c r="G39">
+        <v>0.0</v>
+      </c>
+      <c r="H39">
+        <v>0.0</v>
+      </c>
+      <c r="I39">
+        <v>6269.616976560001</v>
+      </c>
+      <c r="J39">
+        <v>0.0</v>
+      </c>
+      <c r="K39">
+        <v>1124.0</v>
+      </c>
+      <c r="L39">
+        <v>14.48302344</v>
+      </c>
+      <c r="M39">
+        <v>0.0</v>
+      </c>
+      <c r="N39">
+        <v>950.0</v>
+      </c>
+      <c r="O39">
+        <v>2160.0</v>
+      </c>
+      <c r="P39">
+        <v>720.0</v>
+      </c>
+      <c r="Q39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>457.9</v>
+      </c>
+      <c r="B40">
+        <v>0.0</v>
+      </c>
+      <c r="C40">
+        <v>0.0</v>
+      </c>
+      <c r="D40">
+        <v>0.0</v>
+      </c>
+      <c r="E40">
+        <v>0.0</v>
+      </c>
+      <c r="F40">
+        <v>4446.0</v>
+      </c>
+      <c r="G40">
+        <v>0.0</v>
+      </c>
+      <c r="H40">
+        <v>0.0</v>
+      </c>
+      <c r="I40">
+        <v>6391.252190430001</v>
+      </c>
+      <c r="J40">
+        <v>0.0</v>
+      </c>
+      <c r="K40">
+        <v>964.0</v>
+      </c>
+      <c r="L40">
+        <v>9.84780957</v>
+      </c>
+      <c r="M40">
+        <v>0.0</v>
+      </c>
+      <c r="N40">
+        <v>950.0</v>
+      </c>
+      <c r="O40">
+        <v>2160.0</v>
+      </c>
+      <c r="P40">
+        <v>720.0</v>
+      </c>
+      <c r="Q40">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>457.9</v>
+      </c>
+      <c r="B41">
+        <v>0.0</v>
+      </c>
+      <c r="C41">
+        <v>0.0</v>
+      </c>
+      <c r="D41">
+        <v>0.0</v>
+      </c>
+      <c r="E41">
+        <v>0.0</v>
+      </c>
+      <c r="F41">
+        <v>4446.0</v>
+      </c>
+      <c r="G41">
+        <v>0.0</v>
+      </c>
+      <c r="H41">
+        <v>0.0</v>
+      </c>
+      <c r="I41">
+        <v>6560.6357138700005</v>
+      </c>
+      <c r="J41">
+        <v>0.0</v>
+      </c>
+      <c r="K41">
+        <v>875.0</v>
+      </c>
+      <c r="L41">
+        <v>3.46428613</v>
+      </c>
+      <c r="M41">
+        <v>0.0</v>
+      </c>
+      <c r="N41">
+        <v>950.0</v>
+      </c>
+      <c r="O41">
+        <v>2160.0</v>
+      </c>
+      <c r="P41">
+        <v>720.0</v>
+      </c>
+      <c r="Q41">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>457.9</v>
+      </c>
+      <c r="B42">
+        <v>0.0</v>
+      </c>
+      <c r="C42">
+        <v>0.0</v>
+      </c>
+      <c r="D42">
+        <v>0.0</v>
+      </c>
+      <c r="E42">
+        <v>0.0</v>
+      </c>
+      <c r="F42">
+        <v>4446.0</v>
+      </c>
+      <c r="G42">
+        <v>0.0</v>
+      </c>
+      <c r="H42">
+        <v>0.0</v>
+      </c>
+      <c r="I42">
+        <v>7056.908309570001</v>
+      </c>
+      <c r="J42">
+        <v>0.0</v>
+      </c>
+      <c r="K42">
+        <v>783.0</v>
+      </c>
+      <c r="L42">
+        <v>0.19169043</v>
+      </c>
+      <c r="M42">
+        <v>0.0</v>
+      </c>
+      <c r="N42">
+        <v>950.0</v>
+      </c>
+      <c r="O42">
+        <v>2160.0</v>
+      </c>
+      <c r="P42">
+        <v>720.0</v>
+      </c>
+      <c r="Q42">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>457.9</v>
+      </c>
+      <c r="B43">
+        <v>0.0</v>
+      </c>
+      <c r="C43">
+        <v>0.0</v>
+      </c>
+      <c r="D43">
+        <v>0.0</v>
+      </c>
+      <c r="E43">
+        <v>0.0</v>
+      </c>
+      <c r="F43">
+        <v>4446.0</v>
+      </c>
+      <c r="G43">
+        <v>0.0</v>
+      </c>
+      <c r="H43">
+        <v>0.0</v>
+      </c>
+      <c r="I43">
+        <v>8116.1</v>
+      </c>
+      <c r="J43">
+        <v>0.0</v>
+      </c>
+      <c r="K43">
+        <v>596.0</v>
+      </c>
+      <c r="L43">
+        <v>0.0</v>
+      </c>
+      <c r="M43">
+        <v>0.0</v>
+      </c>
+      <c r="N43">
+        <v>950.0</v>
+      </c>
+      <c r="O43">
+        <v>2160.0</v>
+      </c>
+      <c r="P43">
+        <v>720.0</v>
+      </c>
+      <c r="Q43">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>457.9</v>
+      </c>
+      <c r="B44">
+        <v>0.0</v>
+      </c>
+      <c r="C44">
+        <v>0.0</v>
+      </c>
+      <c r="D44">
+        <v>0.0</v>
+      </c>
+      <c r="E44">
+        <v>0.0</v>
+      </c>
+      <c r="F44">
+        <v>4446.0</v>
+      </c>
+      <c r="G44">
+        <v>0.0</v>
+      </c>
+      <c r="H44">
+        <v>0.0</v>
+      </c>
+      <c r="I44">
+        <v>7254.1</v>
+      </c>
+      <c r="J44">
+        <v>0.0</v>
+      </c>
+      <c r="K44">
+        <v>590.0</v>
+      </c>
+      <c r="L44">
+        <v>0.0</v>
+      </c>
+      <c r="M44">
+        <v>0.0</v>
+      </c>
+      <c r="N44">
+        <v>950.0</v>
+      </c>
+      <c r="O44">
+        <v>2160.0</v>
+      </c>
+      <c r="P44">
+        <v>720.0</v>
+      </c>
+      <c r="Q44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>457.9</v>
+      </c>
+      <c r="B45">
+        <v>0.0</v>
+      </c>
+      <c r="C45">
+        <v>0.0</v>
+      </c>
+      <c r="D45">
+        <v>0.0</v>
+      </c>
+      <c r="E45">
+        <v>0.0</v>
+      </c>
+      <c r="F45">
+        <v>4446.0</v>
+      </c>
+      <c r="G45">
+        <v>0.0</v>
+      </c>
+      <c r="H45">
+        <v>0.0</v>
+      </c>
+      <c r="I45">
+        <v>6704.1</v>
+      </c>
+      <c r="J45">
+        <v>0.0</v>
+      </c>
+      <c r="K45">
+        <v>548.0</v>
+      </c>
+      <c r="L45">
+        <v>0.0</v>
+      </c>
+      <c r="M45">
+        <v>0.0</v>
+      </c>
+      <c r="N45">
+        <v>950.0</v>
+      </c>
+      <c r="O45">
+        <v>2160.0</v>
+      </c>
+      <c r="P45">
+        <v>720.0</v>
+      </c>
+      <c r="Q45">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>457.9</v>
+      </c>
+      <c r="B46">
+        <v>0.0</v>
+      </c>
+      <c r="C46">
+        <v>0.0</v>
+      </c>
+      <c r="D46">
+        <v>0.0</v>
+      </c>
+      <c r="E46">
+        <v>0.0</v>
+      </c>
+      <c r="F46">
+        <v>4446.0</v>
+      </c>
+      <c r="G46">
+        <v>0.0</v>
+      </c>
+      <c r="H46">
+        <v>0.0</v>
+      </c>
+      <c r="I46">
+        <v>5957.1</v>
+      </c>
+      <c r="J46">
+        <v>0.0</v>
+      </c>
+      <c r="K46">
+        <v>582.0</v>
+      </c>
+      <c r="L46">
+        <v>0.0</v>
+      </c>
+      <c r="M46">
+        <v>0.0</v>
+      </c>
+      <c r="N46">
+        <v>950.0</v>
+      </c>
+      <c r="O46">
+        <v>2160.0</v>
+      </c>
+      <c r="P46">
+        <v>720.0</v>
+      </c>
+      <c r="Q46">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>457.9</v>
+      </c>
+      <c r="B47">
+        <v>0.0</v>
+      </c>
+      <c r="C47">
+        <v>0.0</v>
+      </c>
+      <c r="D47">
+        <v>0.0</v>
+      </c>
+      <c r="E47">
+        <v>0.0</v>
+      </c>
+      <c r="F47">
+        <v>4446.0</v>
+      </c>
+      <c r="G47">
+        <v>0.0</v>
+      </c>
+      <c r="H47">
+        <v>0.0</v>
+      </c>
+      <c r="I47">
+        <v>5259.1</v>
+      </c>
+      <c r="J47">
+        <v>0.0</v>
+      </c>
+      <c r="K47">
+        <v>501.0</v>
+      </c>
+      <c r="L47">
+        <v>0.0</v>
+      </c>
+      <c r="M47">
+        <v>0.0</v>
+      </c>
+      <c r="N47">
+        <v>950.0</v>
+      </c>
+      <c r="O47">
+        <v>2160.0</v>
+      </c>
+      <c r="P47">
+        <v>720.0</v>
+      </c>
+      <c r="Q47">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>457.9</v>
+      </c>
+      <c r="B48">
+        <v>0.0</v>
+      </c>
+      <c r="C48">
+        <v>0.0</v>
+      </c>
+      <c r="D48">
+        <v>0.0</v>
+      </c>
+      <c r="E48">
+        <v>0.0</v>
+      </c>
+      <c r="F48">
+        <v>4446.0</v>
+      </c>
+      <c r="G48">
+        <v>0.0</v>
+      </c>
+      <c r="H48">
+        <v>0.0</v>
+      </c>
+      <c r="I48">
+        <v>4359.1</v>
+      </c>
+      <c r="J48">
+        <v>0.0</v>
+      </c>
+      <c r="K48">
+        <v>524.0</v>
+      </c>
+      <c r="L48">
+        <v>0.0</v>
+      </c>
+      <c r="M48">
+        <v>0.0</v>
+      </c>
+      <c r="N48">
+        <v>950.0</v>
+      </c>
+      <c r="O48">
+        <v>2160.0</v>
+      </c>
+      <c r="P48">
+        <v>720.0</v>
+      </c>
+      <c r="Q48">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <v>457.9</v>
+      </c>
+      <c r="B49">
+        <v>0.0</v>
+      </c>
+      <c r="C49">
+        <v>0.0</v>
+      </c>
+      <c r="D49">
+        <v>0.0</v>
+      </c>
+      <c r="E49">
+        <v>0.0</v>
+      </c>
+      <c r="F49">
+        <v>4446.0</v>
+      </c>
+      <c r="G49">
+        <v>0.0</v>
+      </c>
+      <c r="H49">
+        <v>0.0</v>
+      </c>
+      <c r="I49">
+        <v>3458.1</v>
+      </c>
+      <c r="J49">
+        <v>0.0</v>
+      </c>
+      <c r="K49">
+        <v>653.0</v>
+      </c>
+      <c r="L49">
+        <v>0.0</v>
+      </c>
+      <c r="M49">
+        <v>0.0</v>
+      </c>
+      <c r="N49">
+        <v>950.0</v>
+      </c>
+      <c r="O49">
+        <v>2160.0</v>
+      </c>
+      <c r="P49">
+        <v>720.0</v>
+      </c>
+      <c r="Q49">
         <v>0.0</v>
       </c>
     </row>

--- a/ErgebnisseNL.xlsx
+++ b/ErgebnisseNL.xlsx
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,7 +512,7 @@
         <v>0.0</v>
       </c>
       <c r="I2">
-        <v>1327.1</v>
+        <v>1039.1</v>
       </c>
       <c r="J2">
         <v>0.0</v>
@@ -530,10 +530,10 @@
         <v>950.0</v>
       </c>
       <c r="O2">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P2">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q2">
         <v>0.0</v>
@@ -565,7 +565,7 @@
         <v>0.0</v>
       </c>
       <c r="I3">
-        <v>1211.1</v>
+        <v>923.1</v>
       </c>
       <c r="J3">
         <v>0.0</v>
@@ -583,10 +583,10 @@
         <v>950.0</v>
       </c>
       <c r="O3">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P3">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q3">
         <v>0.0</v>
@@ -618,7 +618,7 @@
         <v>0.0</v>
       </c>
       <c r="I4">
-        <v>861.1</v>
+        <v>573.1</v>
       </c>
       <c r="J4">
         <v>0.0</v>
@@ -636,10 +636,10 @@
         <v>950.0</v>
       </c>
       <c r="O4">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P4">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q4">
         <v>0.0</v>
@@ -671,7 +671,7 @@
         <v>0.0</v>
       </c>
       <c r="I5">
-        <v>502.1</v>
+        <v>214.10000000000002</v>
       </c>
       <c r="J5">
         <v>0.0</v>
@@ -689,10 +689,10 @@
         <v>950.0</v>
       </c>
       <c r="O5">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P5">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q5">
         <v>0.0</v>
@@ -715,7 +715,7 @@
         <v>0.0</v>
       </c>
       <c r="F6">
-        <v>4446.0</v>
+        <v>4350.1</v>
       </c>
       <c r="G6">
         <v>0.0</v>
@@ -724,7 +724,7 @@
         <v>0.0</v>
       </c>
       <c r="I6">
-        <v>192.10000000000002</v>
+        <v>0.0</v>
       </c>
       <c r="J6">
         <v>0.0</v>
@@ -742,10 +742,10 @@
         <v>950.0</v>
       </c>
       <c r="O6">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P6">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q6">
         <v>0.0</v>
@@ -768,7 +768,7 @@
         <v>0.0</v>
       </c>
       <c r="F7">
-        <v>4446.0</v>
+        <v>4300.1</v>
       </c>
       <c r="G7">
         <v>0.0</v>
@@ -777,7 +777,7 @@
         <v>0.0</v>
       </c>
       <c r="I7">
-        <v>142.10000000000002</v>
+        <v>0.0</v>
       </c>
       <c r="J7">
         <v>0.0</v>
@@ -795,10 +795,10 @@
         <v>950.0</v>
       </c>
       <c r="O7">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P7">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q7">
         <v>0.0</v>
@@ -830,7 +830,7 @@
         <v>0.0</v>
       </c>
       <c r="I8">
-        <v>356.1</v>
+        <v>68.10000000000002</v>
       </c>
       <c r="J8">
         <v>0.0</v>
@@ -848,10 +848,10 @@
         <v>950.0</v>
       </c>
       <c r="O8">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P8">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q8">
         <v>0.0</v>
@@ -883,7 +883,7 @@
         <v>0.0</v>
       </c>
       <c r="I9">
-        <v>598.1</v>
+        <v>310.1</v>
       </c>
       <c r="J9">
         <v>0.0</v>
@@ -901,10 +901,10 @@
         <v>950.0</v>
       </c>
       <c r="O9">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P9">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q9">
         <v>0.0</v>
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="I10">
-        <v>932.9060000000005</v>
+        <v>644.9059999999996</v>
       </c>
       <c r="J10">
         <v>0.0</v>
@@ -954,10 +954,10 @@
         <v>950.0</v>
       </c>
       <c r="O10">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P10">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q10">
         <v>0.0</v>
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="I11">
-        <v>1465.7535478500008</v>
+        <v>1177.7535478500008</v>
       </c>
       <c r="J11">
         <v>0.0</v>
@@ -1007,10 +1007,10 @@
         <v>950.0</v>
       </c>
       <c r="O11">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P11">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q11">
         <v>0.0</v>
@@ -1042,7 +1042,7 @@
         <v>0.0</v>
       </c>
       <c r="I12">
-        <v>1826.9382617200004</v>
+        <v>1538.9382617200004</v>
       </c>
       <c r="J12">
         <v>0.0</v>
@@ -1060,10 +1060,10 @@
         <v>950.0</v>
       </c>
       <c r="O12">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P12">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q12">
         <v>0.0</v>
@@ -1095,7 +1095,7 @@
         <v>0.0</v>
       </c>
       <c r="I13">
-        <v>2183.3585478500004</v>
+        <v>1895.3585478500004</v>
       </c>
       <c r="J13">
         <v>0.0</v>
@@ -1113,10 +1113,10 @@
         <v>950.0</v>
       </c>
       <c r="O13">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P13">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q13">
         <v>0.0</v>
@@ -1148,7 +1148,7 @@
         <v>0.0</v>
       </c>
       <c r="I14">
-        <v>2404.9451425799994</v>
+        <v>2116.9451425799994</v>
       </c>
       <c r="J14">
         <v>0.0</v>
@@ -1166,10 +1166,10 @@
         <v>950.0</v>
       </c>
       <c r="O14">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P14">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q14">
         <v>0.0</v>
@@ -1201,7 +1201,7 @@
         <v>0.0</v>
       </c>
       <c r="I15">
-        <v>2464.4670956999994</v>
+        <v>2176.4670956999994</v>
       </c>
       <c r="J15">
         <v>0.0</v>
@@ -1219,10 +1219,10 @@
         <v>950.0</v>
       </c>
       <c r="O15">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P15">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q15">
         <v>0.0</v>
@@ -1254,7 +1254,7 @@
         <v>0.0</v>
       </c>
       <c r="I16">
-        <v>2338.1045478499996</v>
+        <v>2050.1045478499996</v>
       </c>
       <c r="J16">
         <v>0.0</v>
@@ -1272,10 +1272,10 @@
         <v>950.0</v>
       </c>
       <c r="O16">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P16">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q16">
         <v>0.0</v>
@@ -1307,7 +1307,7 @@
         <v>0.0</v>
       </c>
       <c r="I17">
-        <v>2407.0722617200004</v>
+        <v>2119.0722617200004</v>
       </c>
       <c r="J17">
         <v>0.0</v>
@@ -1325,10 +1325,10 @@
         <v>950.0</v>
       </c>
       <c r="O17">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P17">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q17">
         <v>0.0</v>
@@ -1360,7 +1360,7 @@
         <v>0.0</v>
       </c>
       <c r="I18">
-        <v>2706.0491904299993</v>
+        <v>2418.0491904299993</v>
       </c>
       <c r="J18">
         <v>0.0</v>
@@ -1378,10 +1378,10 @@
         <v>950.0</v>
       </c>
       <c r="O18">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P18">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q18">
         <v>0.0</v>
@@ -1413,7 +1413,7 @@
         <v>0.0</v>
       </c>
       <c r="I19">
-        <v>3640.1</v>
+        <v>3352.1</v>
       </c>
       <c r="J19">
         <v>0.0</v>
@@ -1431,10 +1431,10 @@
         <v>950.0</v>
       </c>
       <c r="O19">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P19">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q19">
         <v>0.0</v>
@@ -1466,7 +1466,7 @@
         <v>0.0</v>
       </c>
       <c r="I20">
-        <v>3475.1</v>
+        <v>3187.1</v>
       </c>
       <c r="J20">
         <v>0.0</v>
@@ -1484,10 +1484,10 @@
         <v>950.0</v>
       </c>
       <c r="O20">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P20">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q20">
         <v>0.0</v>
@@ -1519,7 +1519,7 @@
         <v>0.0</v>
       </c>
       <c r="I21">
-        <v>3226.1</v>
+        <v>2938.1</v>
       </c>
       <c r="J21">
         <v>0.0</v>
@@ -1537,10 +1537,10 @@
         <v>950.0</v>
       </c>
       <c r="O21">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P21">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q21">
         <v>0.0</v>
@@ -1572,7 +1572,7 @@
         <v>0.0</v>
       </c>
       <c r="I22">
-        <v>2863.1</v>
+        <v>2575.1</v>
       </c>
       <c r="J22">
         <v>0.0</v>
@@ -1590,10 +1590,10 @@
         <v>950.0</v>
       </c>
       <c r="O22">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P22">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q22">
         <v>0.0</v>
@@ -1625,7 +1625,7 @@
         <v>0.0</v>
       </c>
       <c r="I23">
-        <v>2297.1</v>
+        <v>2009.1</v>
       </c>
       <c r="J23">
         <v>0.0</v>
@@ -1643,10 +1643,10 @@
         <v>950.0</v>
       </c>
       <c r="O23">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P23">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q23">
         <v>0.0</v>
@@ -1678,7 +1678,7 @@
         <v>0.0</v>
       </c>
       <c r="I24">
-        <v>1774.1</v>
+        <v>1486.1</v>
       </c>
       <c r="J24">
         <v>0.0</v>
@@ -1696,10 +1696,10 @@
         <v>950.0</v>
       </c>
       <c r="O24">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P24">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q24">
         <v>0.0</v>
@@ -1731,7 +1731,7 @@
         <v>0.0</v>
       </c>
       <c r="I25">
-        <v>1105.1</v>
+        <v>817.1</v>
       </c>
       <c r="J25">
         <v>0.0</v>
@@ -1749,1284 +1749,12 @@
         <v>950.0</v>
       </c>
       <c r="O25">
-        <v>2160.0</v>
+        <v>2400.0</v>
       </c>
       <c r="P25">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
       <c r="Q25">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26">
-        <v>457.9</v>
-      </c>
-      <c r="B26">
-        <v>0.0</v>
-      </c>
-      <c r="C26">
-        <v>0.0</v>
-      </c>
-      <c r="D26">
-        <v>0.0</v>
-      </c>
-      <c r="E26">
-        <v>0.0</v>
-      </c>
-      <c r="F26">
-        <v>4446.0</v>
-      </c>
-      <c r="G26">
-        <v>0.0</v>
-      </c>
-      <c r="H26">
-        <v>0.0</v>
-      </c>
-      <c r="I26">
-        <v>709.1</v>
-      </c>
-      <c r="J26">
-        <v>0.0</v>
-      </c>
-      <c r="K26">
-        <v>1901.0</v>
-      </c>
-      <c r="L26">
-        <v>0.0</v>
-      </c>
-      <c r="M26">
-        <v>0.0</v>
-      </c>
-      <c r="N26">
-        <v>950.0</v>
-      </c>
-      <c r="O26">
-        <v>2160.0</v>
-      </c>
-      <c r="P26">
-        <v>720.0</v>
-      </c>
-      <c r="Q26">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27">
-        <v>457.9</v>
-      </c>
-      <c r="B27">
-        <v>0.0</v>
-      </c>
-      <c r="C27">
-        <v>0.0</v>
-      </c>
-      <c r="D27">
-        <v>0.0</v>
-      </c>
-      <c r="E27">
-        <v>0.0</v>
-      </c>
-      <c r="F27">
-        <v>4446.0</v>
-      </c>
-      <c r="G27">
-        <v>0.0</v>
-      </c>
-      <c r="H27">
-        <v>0.0</v>
-      </c>
-      <c r="I27">
-        <v>339.1</v>
-      </c>
-      <c r="J27">
-        <v>0.0</v>
-      </c>
-      <c r="K27">
-        <v>1942.0</v>
-      </c>
-      <c r="L27">
-        <v>0.0</v>
-      </c>
-      <c r="M27">
-        <v>0.0</v>
-      </c>
-      <c r="N27">
-        <v>950.0</v>
-      </c>
-      <c r="O27">
-        <v>2160.0</v>
-      </c>
-      <c r="P27">
-        <v>720.0</v>
-      </c>
-      <c r="Q27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28">
-        <v>457.9</v>
-      </c>
-      <c r="B28">
-        <v>0.0</v>
-      </c>
-      <c r="C28">
-        <v>0.0</v>
-      </c>
-      <c r="D28">
-        <v>0.0</v>
-      </c>
-      <c r="E28">
-        <v>0.0</v>
-      </c>
-      <c r="F28">
-        <v>4446.0</v>
-      </c>
-      <c r="G28">
-        <v>0.0</v>
-      </c>
-      <c r="H28">
-        <v>0.0</v>
-      </c>
-      <c r="I28">
-        <v>162.10000000000002</v>
-      </c>
-      <c r="J28">
-        <v>0.0</v>
-      </c>
-      <c r="K28">
-        <v>1965.0</v>
-      </c>
-      <c r="L28">
-        <v>0.0</v>
-      </c>
-      <c r="M28">
-        <v>0.0</v>
-      </c>
-      <c r="N28">
-        <v>950.0</v>
-      </c>
-      <c r="O28">
-        <v>2160.0</v>
-      </c>
-      <c r="P28">
-        <v>720.0</v>
-      </c>
-      <c r="Q28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29">
-        <v>457.9</v>
-      </c>
-      <c r="B29">
-        <v>0.0</v>
-      </c>
-      <c r="C29">
-        <v>0.0</v>
-      </c>
-      <c r="D29">
-        <v>0.0</v>
-      </c>
-      <c r="E29">
-        <v>0.0</v>
-      </c>
-      <c r="F29">
-        <v>4446.0</v>
-      </c>
-      <c r="G29">
-        <v>0.0</v>
-      </c>
-      <c r="H29">
-        <v>0.0</v>
-      </c>
-      <c r="I29">
-        <v>85.10000000000002</v>
-      </c>
-      <c r="J29">
-        <v>0.0</v>
-      </c>
-      <c r="K29">
-        <v>1981.0</v>
-      </c>
-      <c r="L29">
-        <v>0.0</v>
-      </c>
-      <c r="M29">
-        <v>0.0</v>
-      </c>
-      <c r="N29">
-        <v>950.0</v>
-      </c>
-      <c r="O29">
-        <v>2160.0</v>
-      </c>
-      <c r="P29">
-        <v>720.0</v>
-      </c>
-      <c r="Q29">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30">
-        <v>457.9</v>
-      </c>
-      <c r="B30">
-        <v>0.0</v>
-      </c>
-      <c r="C30">
-        <v>0.0</v>
-      </c>
-      <c r="D30">
-        <v>0.0</v>
-      </c>
-      <c r="E30">
-        <v>0.0</v>
-      </c>
-      <c r="F30">
-        <v>4446.0</v>
-      </c>
-      <c r="G30">
-        <v>0.0</v>
-      </c>
-      <c r="H30">
-        <v>0.0</v>
-      </c>
-      <c r="I30">
-        <v>232.10000000000002</v>
-      </c>
-      <c r="J30">
-        <v>0.0</v>
-      </c>
-      <c r="K30">
-        <v>1929.0</v>
-      </c>
-      <c r="L30">
-        <v>0.0</v>
-      </c>
-      <c r="M30">
-        <v>0.0</v>
-      </c>
-      <c r="N30">
-        <v>950.0</v>
-      </c>
-      <c r="O30">
-        <v>2160.0</v>
-      </c>
-      <c r="P30">
-        <v>720.0</v>
-      </c>
-      <c r="Q30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31">
-        <v>457.9</v>
-      </c>
-      <c r="B31">
-        <v>0.0</v>
-      </c>
-      <c r="C31">
-        <v>0.0</v>
-      </c>
-      <c r="D31">
-        <v>0.0</v>
-      </c>
-      <c r="E31">
-        <v>0.0</v>
-      </c>
-      <c r="F31">
-        <v>4446.0</v>
-      </c>
-      <c r="G31">
-        <v>0.0</v>
-      </c>
-      <c r="H31">
-        <v>0.0</v>
-      </c>
-      <c r="I31">
-        <v>790.1</v>
-      </c>
-      <c r="J31">
-        <v>0.0</v>
-      </c>
-      <c r="K31">
-        <v>1873.0</v>
-      </c>
-      <c r="L31">
-        <v>0.0</v>
-      </c>
-      <c r="M31">
-        <v>0.0</v>
-      </c>
-      <c r="N31">
-        <v>950.0</v>
-      </c>
-      <c r="O31">
-        <v>2160.0</v>
-      </c>
-      <c r="P31">
-        <v>720.0</v>
-      </c>
-      <c r="Q31">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32">
-        <v>457.9</v>
-      </c>
-      <c r="B32">
-        <v>0.0</v>
-      </c>
-      <c r="C32">
-        <v>0.0</v>
-      </c>
-      <c r="D32">
-        <v>0.0</v>
-      </c>
-      <c r="E32">
-        <v>0.0</v>
-      </c>
-      <c r="F32">
-        <v>4446.0</v>
-      </c>
-      <c r="G32">
-        <v>0.0</v>
-      </c>
-      <c r="H32">
-        <v>0.0</v>
-      </c>
-      <c r="I32">
-        <v>2097.1</v>
-      </c>
-      <c r="J32">
-        <v>0.0</v>
-      </c>
-      <c r="K32">
-        <v>1757.0</v>
-      </c>
-      <c r="L32">
-        <v>0.0</v>
-      </c>
-      <c r="M32">
-        <v>0.0</v>
-      </c>
-      <c r="N32">
-        <v>950.0</v>
-      </c>
-      <c r="O32">
-        <v>2160.0</v>
-      </c>
-      <c r="P32">
-        <v>720.0</v>
-      </c>
-      <c r="Q32">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33">
-        <v>457.9</v>
-      </c>
-      <c r="B33">
-        <v>0.0</v>
-      </c>
-      <c r="C33">
-        <v>0.0</v>
-      </c>
-      <c r="D33">
-        <v>0.0</v>
-      </c>
-      <c r="E33">
-        <v>0.0</v>
-      </c>
-      <c r="F33">
-        <v>4446.0</v>
-      </c>
-      <c r="G33">
-        <v>0.0</v>
-      </c>
-      <c r="H33">
-        <v>0.0</v>
-      </c>
-      <c r="I33">
-        <v>3476.1</v>
-      </c>
-      <c r="J33">
-        <v>0.0</v>
-      </c>
-      <c r="K33">
-        <v>1831.0</v>
-      </c>
-      <c r="L33">
-        <v>0.0</v>
-      </c>
-      <c r="M33">
-        <v>0.0</v>
-      </c>
-      <c r="N33">
-        <v>950.0</v>
-      </c>
-      <c r="O33">
-        <v>2160.0</v>
-      </c>
-      <c r="P33">
-        <v>720.0</v>
-      </c>
-      <c r="Q33">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34">
-        <v>457.9</v>
-      </c>
-      <c r="B34">
-        <v>0.0</v>
-      </c>
-      <c r="C34">
-        <v>0.0</v>
-      </c>
-      <c r="D34">
-        <v>0.0</v>
-      </c>
-      <c r="E34">
-        <v>0.0</v>
-      </c>
-      <c r="F34">
-        <v>4446.0</v>
-      </c>
-      <c r="G34">
-        <v>0.0</v>
-      </c>
-      <c r="H34">
-        <v>0.0</v>
-      </c>
-      <c r="I34">
-        <v>4963.8505712900005</v>
-      </c>
-      <c r="J34">
-        <v>0.0</v>
-      </c>
-      <c r="K34">
-        <v>1620.0</v>
-      </c>
-      <c r="L34">
-        <v>0.24942871</v>
-      </c>
-      <c r="M34">
-        <v>0.0</v>
-      </c>
-      <c r="N34">
-        <v>950.0</v>
-      </c>
-      <c r="O34">
-        <v>2160.0</v>
-      </c>
-      <c r="P34">
-        <v>720.0</v>
-      </c>
-      <c r="Q34">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35">
-        <v>457.9</v>
-      </c>
-      <c r="B35">
-        <v>0.0</v>
-      </c>
-      <c r="C35">
-        <v>0.0</v>
-      </c>
-      <c r="D35">
-        <v>0.0</v>
-      </c>
-      <c r="E35">
-        <v>0.0</v>
-      </c>
-      <c r="F35">
-        <v>4446.0</v>
-      </c>
-      <c r="G35">
-        <v>0.0</v>
-      </c>
-      <c r="H35">
-        <v>0.0</v>
-      </c>
-      <c r="I35">
-        <v>5770.6819043</v>
-      </c>
-      <c r="J35">
-        <v>0.0</v>
-      </c>
-      <c r="K35">
-        <v>1493.0</v>
-      </c>
-      <c r="L35">
-        <v>3.4180957000000003</v>
-      </c>
-      <c r="M35">
-        <v>0.0</v>
-      </c>
-      <c r="N35">
-        <v>950.0</v>
-      </c>
-      <c r="O35">
-        <v>2160.0</v>
-      </c>
-      <c r="P35">
-        <v>720.0</v>
-      </c>
-      <c r="Q35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36">
-        <v>457.9</v>
-      </c>
-      <c r="B36">
-        <v>0.0</v>
-      </c>
-      <c r="C36">
-        <v>0.0</v>
-      </c>
-      <c r="D36">
-        <v>0.0</v>
-      </c>
-      <c r="E36">
-        <v>0.0</v>
-      </c>
-      <c r="F36">
-        <v>4446.0</v>
-      </c>
-      <c r="G36">
-        <v>0.0</v>
-      </c>
-      <c r="H36">
-        <v>0.0</v>
-      </c>
-      <c r="I36">
-        <v>5945.5200957</v>
-      </c>
-      <c r="J36">
-        <v>0.0</v>
-      </c>
-      <c r="K36">
-        <v>1387.0</v>
-      </c>
-      <c r="L36">
-        <v>9.5799043</v>
-      </c>
-      <c r="M36">
-        <v>0.0</v>
-      </c>
-      <c r="N36">
-        <v>950.0</v>
-      </c>
-      <c r="O36">
-        <v>2160.0</v>
-      </c>
-      <c r="P36">
-        <v>720.0</v>
-      </c>
-      <c r="Q36">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37">
-        <v>457.9</v>
-      </c>
-      <c r="B37">
-        <v>0.0</v>
-      </c>
-      <c r="C37">
-        <v>0.0</v>
-      </c>
-      <c r="D37">
-        <v>0.0</v>
-      </c>
-      <c r="E37">
-        <v>0.0</v>
-      </c>
-      <c r="F37">
-        <v>4446.0</v>
-      </c>
-      <c r="G37">
-        <v>0.0</v>
-      </c>
-      <c r="H37">
-        <v>0.0</v>
-      </c>
-      <c r="I37">
-        <v>6134.46916699</v>
-      </c>
-      <c r="J37">
-        <v>0.0</v>
-      </c>
-      <c r="K37">
-        <v>1334.0</v>
-      </c>
-      <c r="L37">
-        <v>14.630833009999998</v>
-      </c>
-      <c r="M37">
-        <v>0.0</v>
-      </c>
-      <c r="N37">
-        <v>950.0</v>
-      </c>
-      <c r="O37">
-        <v>2160.0</v>
-      </c>
-      <c r="P37">
-        <v>720.0</v>
-      </c>
-      <c r="Q37">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38">
-        <v>457.9</v>
-      </c>
-      <c r="B38">
-        <v>0.0</v>
-      </c>
-      <c r="C38">
-        <v>0.0</v>
-      </c>
-      <c r="D38">
-        <v>0.0</v>
-      </c>
-      <c r="E38">
-        <v>0.0</v>
-      </c>
-      <c r="F38">
-        <v>4446.0</v>
-      </c>
-      <c r="G38">
-        <v>0.0</v>
-      </c>
-      <c r="H38">
-        <v>0.0</v>
-      </c>
-      <c r="I38">
-        <v>6115.097309570001</v>
-      </c>
-      <c r="J38">
-        <v>0.0</v>
-      </c>
-      <c r="K38">
-        <v>1280.0</v>
-      </c>
-      <c r="L38">
-        <v>16.00269043</v>
-      </c>
-      <c r="M38">
-        <v>0.0</v>
-      </c>
-      <c r="N38">
-        <v>950.0</v>
-      </c>
-      <c r="O38">
-        <v>2160.0</v>
-      </c>
-      <c r="P38">
-        <v>720.0</v>
-      </c>
-      <c r="Q38">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39">
-        <v>457.9</v>
-      </c>
-      <c r="B39">
-        <v>0.0</v>
-      </c>
-      <c r="C39">
-        <v>0.0</v>
-      </c>
-      <c r="D39">
-        <v>0.0</v>
-      </c>
-      <c r="E39">
-        <v>0.0</v>
-      </c>
-      <c r="F39">
-        <v>4446.0</v>
-      </c>
-      <c r="G39">
-        <v>0.0</v>
-      </c>
-      <c r="H39">
-        <v>0.0</v>
-      </c>
-      <c r="I39">
-        <v>6269.616976560001</v>
-      </c>
-      <c r="J39">
-        <v>0.0</v>
-      </c>
-      <c r="K39">
-        <v>1124.0</v>
-      </c>
-      <c r="L39">
-        <v>14.48302344</v>
-      </c>
-      <c r="M39">
-        <v>0.0</v>
-      </c>
-      <c r="N39">
-        <v>950.0</v>
-      </c>
-      <c r="O39">
-        <v>2160.0</v>
-      </c>
-      <c r="P39">
-        <v>720.0</v>
-      </c>
-      <c r="Q39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40">
-        <v>457.9</v>
-      </c>
-      <c r="B40">
-        <v>0.0</v>
-      </c>
-      <c r="C40">
-        <v>0.0</v>
-      </c>
-      <c r="D40">
-        <v>0.0</v>
-      </c>
-      <c r="E40">
-        <v>0.0</v>
-      </c>
-      <c r="F40">
-        <v>4446.0</v>
-      </c>
-      <c r="G40">
-        <v>0.0</v>
-      </c>
-      <c r="H40">
-        <v>0.0</v>
-      </c>
-      <c r="I40">
-        <v>6391.252190430001</v>
-      </c>
-      <c r="J40">
-        <v>0.0</v>
-      </c>
-      <c r="K40">
-        <v>964.0</v>
-      </c>
-      <c r="L40">
-        <v>9.84780957</v>
-      </c>
-      <c r="M40">
-        <v>0.0</v>
-      </c>
-      <c r="N40">
-        <v>950.0</v>
-      </c>
-      <c r="O40">
-        <v>2160.0</v>
-      </c>
-      <c r="P40">
-        <v>720.0</v>
-      </c>
-      <c r="Q40">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41">
-        <v>457.9</v>
-      </c>
-      <c r="B41">
-        <v>0.0</v>
-      </c>
-      <c r="C41">
-        <v>0.0</v>
-      </c>
-      <c r="D41">
-        <v>0.0</v>
-      </c>
-      <c r="E41">
-        <v>0.0</v>
-      </c>
-      <c r="F41">
-        <v>4446.0</v>
-      </c>
-      <c r="G41">
-        <v>0.0</v>
-      </c>
-      <c r="H41">
-        <v>0.0</v>
-      </c>
-      <c r="I41">
-        <v>6560.6357138700005</v>
-      </c>
-      <c r="J41">
-        <v>0.0</v>
-      </c>
-      <c r="K41">
-        <v>875.0</v>
-      </c>
-      <c r="L41">
-        <v>3.46428613</v>
-      </c>
-      <c r="M41">
-        <v>0.0</v>
-      </c>
-      <c r="N41">
-        <v>950.0</v>
-      </c>
-      <c r="O41">
-        <v>2160.0</v>
-      </c>
-      <c r="P41">
-        <v>720.0</v>
-      </c>
-      <c r="Q41">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42">
-        <v>457.9</v>
-      </c>
-      <c r="B42">
-        <v>0.0</v>
-      </c>
-      <c r="C42">
-        <v>0.0</v>
-      </c>
-      <c r="D42">
-        <v>0.0</v>
-      </c>
-      <c r="E42">
-        <v>0.0</v>
-      </c>
-      <c r="F42">
-        <v>4446.0</v>
-      </c>
-      <c r="G42">
-        <v>0.0</v>
-      </c>
-      <c r="H42">
-        <v>0.0</v>
-      </c>
-      <c r="I42">
-        <v>7056.908309570001</v>
-      </c>
-      <c r="J42">
-        <v>0.0</v>
-      </c>
-      <c r="K42">
-        <v>783.0</v>
-      </c>
-      <c r="L42">
-        <v>0.19169043</v>
-      </c>
-      <c r="M42">
-        <v>0.0</v>
-      </c>
-      <c r="N42">
-        <v>950.0</v>
-      </c>
-      <c r="O42">
-        <v>2160.0</v>
-      </c>
-      <c r="P42">
-        <v>720.0</v>
-      </c>
-      <c r="Q42">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43">
-        <v>457.9</v>
-      </c>
-      <c r="B43">
-        <v>0.0</v>
-      </c>
-      <c r="C43">
-        <v>0.0</v>
-      </c>
-      <c r="D43">
-        <v>0.0</v>
-      </c>
-      <c r="E43">
-        <v>0.0</v>
-      </c>
-      <c r="F43">
-        <v>4446.0</v>
-      </c>
-      <c r="G43">
-        <v>0.0</v>
-      </c>
-      <c r="H43">
-        <v>0.0</v>
-      </c>
-      <c r="I43">
-        <v>8116.1</v>
-      </c>
-      <c r="J43">
-        <v>0.0</v>
-      </c>
-      <c r="K43">
-        <v>596.0</v>
-      </c>
-      <c r="L43">
-        <v>0.0</v>
-      </c>
-      <c r="M43">
-        <v>0.0</v>
-      </c>
-      <c r="N43">
-        <v>950.0</v>
-      </c>
-      <c r="O43">
-        <v>2160.0</v>
-      </c>
-      <c r="P43">
-        <v>720.0</v>
-      </c>
-      <c r="Q43">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44">
-        <v>457.9</v>
-      </c>
-      <c r="B44">
-        <v>0.0</v>
-      </c>
-      <c r="C44">
-        <v>0.0</v>
-      </c>
-      <c r="D44">
-        <v>0.0</v>
-      </c>
-      <c r="E44">
-        <v>0.0</v>
-      </c>
-      <c r="F44">
-        <v>4446.0</v>
-      </c>
-      <c r="G44">
-        <v>0.0</v>
-      </c>
-      <c r="H44">
-        <v>0.0</v>
-      </c>
-      <c r="I44">
-        <v>7254.1</v>
-      </c>
-      <c r="J44">
-        <v>0.0</v>
-      </c>
-      <c r="K44">
-        <v>590.0</v>
-      </c>
-      <c r="L44">
-        <v>0.0</v>
-      </c>
-      <c r="M44">
-        <v>0.0</v>
-      </c>
-      <c r="N44">
-        <v>950.0</v>
-      </c>
-      <c r="O44">
-        <v>2160.0</v>
-      </c>
-      <c r="P44">
-        <v>720.0</v>
-      </c>
-      <c r="Q44">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45">
-        <v>457.9</v>
-      </c>
-      <c r="B45">
-        <v>0.0</v>
-      </c>
-      <c r="C45">
-        <v>0.0</v>
-      </c>
-      <c r="D45">
-        <v>0.0</v>
-      </c>
-      <c r="E45">
-        <v>0.0</v>
-      </c>
-      <c r="F45">
-        <v>4446.0</v>
-      </c>
-      <c r="G45">
-        <v>0.0</v>
-      </c>
-      <c r="H45">
-        <v>0.0</v>
-      </c>
-      <c r="I45">
-        <v>6704.1</v>
-      </c>
-      <c r="J45">
-        <v>0.0</v>
-      </c>
-      <c r="K45">
-        <v>548.0</v>
-      </c>
-      <c r="L45">
-        <v>0.0</v>
-      </c>
-      <c r="M45">
-        <v>0.0</v>
-      </c>
-      <c r="N45">
-        <v>950.0</v>
-      </c>
-      <c r="O45">
-        <v>2160.0</v>
-      </c>
-      <c r="P45">
-        <v>720.0</v>
-      </c>
-      <c r="Q45">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46">
-        <v>457.9</v>
-      </c>
-      <c r="B46">
-        <v>0.0</v>
-      </c>
-      <c r="C46">
-        <v>0.0</v>
-      </c>
-      <c r="D46">
-        <v>0.0</v>
-      </c>
-      <c r="E46">
-        <v>0.0</v>
-      </c>
-      <c r="F46">
-        <v>4446.0</v>
-      </c>
-      <c r="G46">
-        <v>0.0</v>
-      </c>
-      <c r="H46">
-        <v>0.0</v>
-      </c>
-      <c r="I46">
-        <v>5957.1</v>
-      </c>
-      <c r="J46">
-        <v>0.0</v>
-      </c>
-      <c r="K46">
-        <v>582.0</v>
-      </c>
-      <c r="L46">
-        <v>0.0</v>
-      </c>
-      <c r="M46">
-        <v>0.0</v>
-      </c>
-      <c r="N46">
-        <v>950.0</v>
-      </c>
-      <c r="O46">
-        <v>2160.0</v>
-      </c>
-      <c r="P46">
-        <v>720.0</v>
-      </c>
-      <c r="Q46">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47">
-        <v>457.9</v>
-      </c>
-      <c r="B47">
-        <v>0.0</v>
-      </c>
-      <c r="C47">
-        <v>0.0</v>
-      </c>
-      <c r="D47">
-        <v>0.0</v>
-      </c>
-      <c r="E47">
-        <v>0.0</v>
-      </c>
-      <c r="F47">
-        <v>4446.0</v>
-      </c>
-      <c r="G47">
-        <v>0.0</v>
-      </c>
-      <c r="H47">
-        <v>0.0</v>
-      </c>
-      <c r="I47">
-        <v>5259.1</v>
-      </c>
-      <c r="J47">
-        <v>0.0</v>
-      </c>
-      <c r="K47">
-        <v>501.0</v>
-      </c>
-      <c r="L47">
-        <v>0.0</v>
-      </c>
-      <c r="M47">
-        <v>0.0</v>
-      </c>
-      <c r="N47">
-        <v>950.0</v>
-      </c>
-      <c r="O47">
-        <v>2160.0</v>
-      </c>
-      <c r="P47">
-        <v>720.0</v>
-      </c>
-      <c r="Q47">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48">
-        <v>457.9</v>
-      </c>
-      <c r="B48">
-        <v>0.0</v>
-      </c>
-      <c r="C48">
-        <v>0.0</v>
-      </c>
-      <c r="D48">
-        <v>0.0</v>
-      </c>
-      <c r="E48">
-        <v>0.0</v>
-      </c>
-      <c r="F48">
-        <v>4446.0</v>
-      </c>
-      <c r="G48">
-        <v>0.0</v>
-      </c>
-      <c r="H48">
-        <v>0.0</v>
-      </c>
-      <c r="I48">
-        <v>4359.1</v>
-      </c>
-      <c r="J48">
-        <v>0.0</v>
-      </c>
-      <c r="K48">
-        <v>524.0</v>
-      </c>
-      <c r="L48">
-        <v>0.0</v>
-      </c>
-      <c r="M48">
-        <v>0.0</v>
-      </c>
-      <c r="N48">
-        <v>950.0</v>
-      </c>
-      <c r="O48">
-        <v>2160.0</v>
-      </c>
-      <c r="P48">
-        <v>720.0</v>
-      </c>
-      <c r="Q48">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49">
-        <v>457.9</v>
-      </c>
-      <c r="B49">
-        <v>0.0</v>
-      </c>
-      <c r="C49">
-        <v>0.0</v>
-      </c>
-      <c r="D49">
-        <v>0.0</v>
-      </c>
-      <c r="E49">
-        <v>0.0</v>
-      </c>
-      <c r="F49">
-        <v>4446.0</v>
-      </c>
-      <c r="G49">
-        <v>0.0</v>
-      </c>
-      <c r="H49">
-        <v>0.0</v>
-      </c>
-      <c r="I49">
-        <v>3458.1</v>
-      </c>
-      <c r="J49">
-        <v>0.0</v>
-      </c>
-      <c r="K49">
-        <v>653.0</v>
-      </c>
-      <c r="L49">
-        <v>0.0</v>
-      </c>
-      <c r="M49">
-        <v>0.0</v>
-      </c>
-      <c r="N49">
-        <v>950.0</v>
-      </c>
-      <c r="O49">
-        <v>2160.0</v>
-      </c>
-      <c r="P49">
-        <v>720.0</v>
-      </c>
-      <c r="Q49">
         <v>0.0</v>
       </c>
     </row>

--- a/ErgebnisseNL.xlsx
+++ b/ErgebnisseNL.xlsx
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1122,642 +1122,6 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14">
-        <v>457.9</v>
-      </c>
-      <c r="B14">
-        <v>0.0</v>
-      </c>
-      <c r="C14">
-        <v>0.0</v>
-      </c>
-      <c r="D14">
-        <v>0.0</v>
-      </c>
-      <c r="E14">
-        <v>0.0</v>
-      </c>
-      <c r="F14">
-        <v>4446.0</v>
-      </c>
-      <c r="G14">
-        <v>0.0</v>
-      </c>
-      <c r="H14">
-        <v>0.0</v>
-      </c>
-      <c r="I14">
-        <v>2116.9451425799994</v>
-      </c>
-      <c r="J14">
-        <v>0.0</v>
-      </c>
-      <c r="K14">
-        <v>1637.0</v>
-      </c>
-      <c r="L14">
-        <v>5.15485742</v>
-      </c>
-      <c r="M14">
-        <v>0.0</v>
-      </c>
-      <c r="N14">
-        <v>950.0</v>
-      </c>
-      <c r="O14">
-        <v>2400.0</v>
-      </c>
-      <c r="P14">
-        <v>800.0</v>
-      </c>
-      <c r="Q14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15">
-        <v>457.9</v>
-      </c>
-      <c r="B15">
-        <v>0.0</v>
-      </c>
-      <c r="C15">
-        <v>0.0</v>
-      </c>
-      <c r="D15">
-        <v>0.0</v>
-      </c>
-      <c r="E15">
-        <v>0.0</v>
-      </c>
-      <c r="F15">
-        <v>4446.0</v>
-      </c>
-      <c r="G15">
-        <v>0.0</v>
-      </c>
-      <c r="H15">
-        <v>0.0</v>
-      </c>
-      <c r="I15">
-        <v>2176.4670956999994</v>
-      </c>
-      <c r="J15">
-        <v>0.0</v>
-      </c>
-      <c r="K15">
-        <v>1695.0</v>
-      </c>
-      <c r="L15">
-        <v>4.6329043</v>
-      </c>
-      <c r="M15">
-        <v>0.0</v>
-      </c>
-      <c r="N15">
-        <v>950.0</v>
-      </c>
-      <c r="O15">
-        <v>2400.0</v>
-      </c>
-      <c r="P15">
-        <v>800.0</v>
-      </c>
-      <c r="Q15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16">
-        <v>457.9</v>
-      </c>
-      <c r="B16">
-        <v>0.0</v>
-      </c>
-      <c r="C16">
-        <v>0.0</v>
-      </c>
-      <c r="D16">
-        <v>0.0</v>
-      </c>
-      <c r="E16">
-        <v>0.0</v>
-      </c>
-      <c r="F16">
-        <v>4446.0</v>
-      </c>
-      <c r="G16">
-        <v>0.0</v>
-      </c>
-      <c r="H16">
-        <v>0.0</v>
-      </c>
-      <c r="I16">
-        <v>2050.1045478499996</v>
-      </c>
-      <c r="J16">
-        <v>0.0</v>
-      </c>
-      <c r="K16">
-        <v>1800.0</v>
-      </c>
-      <c r="L16">
-        <v>2.99545215</v>
-      </c>
-      <c r="M16">
-        <v>0.0</v>
-      </c>
-      <c r="N16">
-        <v>950.0</v>
-      </c>
-      <c r="O16">
-        <v>2400.0</v>
-      </c>
-      <c r="P16">
-        <v>800.0</v>
-      </c>
-      <c r="Q16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17">
-        <v>457.9</v>
-      </c>
-      <c r="B17">
-        <v>0.0</v>
-      </c>
-      <c r="C17">
-        <v>0.0</v>
-      </c>
-      <c r="D17">
-        <v>0.0</v>
-      </c>
-      <c r="E17">
-        <v>0.0</v>
-      </c>
-      <c r="F17">
-        <v>4446.0</v>
-      </c>
-      <c r="G17">
-        <v>0.0</v>
-      </c>
-      <c r="H17">
-        <v>0.0</v>
-      </c>
-      <c r="I17">
-        <v>2119.0722617200004</v>
-      </c>
-      <c r="J17">
-        <v>0.0</v>
-      </c>
-      <c r="K17">
-        <v>1855.0</v>
-      </c>
-      <c r="L17">
-        <v>1.0277382800000001</v>
-      </c>
-      <c r="M17">
-        <v>0.0</v>
-      </c>
-      <c r="N17">
-        <v>950.0</v>
-      </c>
-      <c r="O17">
-        <v>2400.0</v>
-      </c>
-      <c r="P17">
-        <v>800.0</v>
-      </c>
-      <c r="Q17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18">
-        <v>457.9</v>
-      </c>
-      <c r="B18">
-        <v>0.0</v>
-      </c>
-      <c r="C18">
-        <v>0.0</v>
-      </c>
-      <c r="D18">
-        <v>0.0</v>
-      </c>
-      <c r="E18">
-        <v>0.0</v>
-      </c>
-      <c r="F18">
-        <v>4446.0</v>
-      </c>
-      <c r="G18">
-        <v>0.0</v>
-      </c>
-      <c r="H18">
-        <v>0.0</v>
-      </c>
-      <c r="I18">
-        <v>2418.0491904299993</v>
-      </c>
-      <c r="J18">
-        <v>0.0</v>
-      </c>
-      <c r="K18">
-        <v>1925.0</v>
-      </c>
-      <c r="L18">
-        <v>0.05080957</v>
-      </c>
-      <c r="M18">
-        <v>0.0</v>
-      </c>
-      <c r="N18">
-        <v>950.0</v>
-      </c>
-      <c r="O18">
-        <v>2400.0</v>
-      </c>
-      <c r="P18">
-        <v>800.0</v>
-      </c>
-      <c r="Q18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19">
-        <v>457.9</v>
-      </c>
-      <c r="B19">
-        <v>0.0</v>
-      </c>
-      <c r="C19">
-        <v>0.0</v>
-      </c>
-      <c r="D19">
-        <v>0.0</v>
-      </c>
-      <c r="E19">
-        <v>0.0</v>
-      </c>
-      <c r="F19">
-        <v>4446.0</v>
-      </c>
-      <c r="G19">
-        <v>0.0</v>
-      </c>
-      <c r="H19">
-        <v>0.0</v>
-      </c>
-      <c r="I19">
-        <v>3352.1</v>
-      </c>
-      <c r="J19">
-        <v>0.0</v>
-      </c>
-      <c r="K19">
-        <v>1993.0</v>
-      </c>
-      <c r="L19">
-        <v>0.0</v>
-      </c>
-      <c r="M19">
-        <v>0.0</v>
-      </c>
-      <c r="N19">
-        <v>950.0</v>
-      </c>
-      <c r="O19">
-        <v>2400.0</v>
-      </c>
-      <c r="P19">
-        <v>800.0</v>
-      </c>
-      <c r="Q19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20">
-        <v>457.9</v>
-      </c>
-      <c r="B20">
-        <v>0.0</v>
-      </c>
-      <c r="C20">
-        <v>0.0</v>
-      </c>
-      <c r="D20">
-        <v>0.0</v>
-      </c>
-      <c r="E20">
-        <v>0.0</v>
-      </c>
-      <c r="F20">
-        <v>4446.0</v>
-      </c>
-      <c r="G20">
-        <v>0.0</v>
-      </c>
-      <c r="H20">
-        <v>0.0</v>
-      </c>
-      <c r="I20">
-        <v>3187.1</v>
-      </c>
-      <c r="J20">
-        <v>0.0</v>
-      </c>
-      <c r="K20">
-        <v>2029.0</v>
-      </c>
-      <c r="L20">
-        <v>0.0</v>
-      </c>
-      <c r="M20">
-        <v>0.0</v>
-      </c>
-      <c r="N20">
-        <v>950.0</v>
-      </c>
-      <c r="O20">
-        <v>2400.0</v>
-      </c>
-      <c r="P20">
-        <v>800.0</v>
-      </c>
-      <c r="Q20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21">
-        <v>457.9</v>
-      </c>
-      <c r="B21">
-        <v>0.0</v>
-      </c>
-      <c r="C21">
-        <v>0.0</v>
-      </c>
-      <c r="D21">
-        <v>0.0</v>
-      </c>
-      <c r="E21">
-        <v>0.0</v>
-      </c>
-      <c r="F21">
-        <v>4446.0</v>
-      </c>
-      <c r="G21">
-        <v>0.0</v>
-      </c>
-      <c r="H21">
-        <v>0.0</v>
-      </c>
-      <c r="I21">
-        <v>2938.1</v>
-      </c>
-      <c r="J21">
-        <v>0.0</v>
-      </c>
-      <c r="K21">
-        <v>2006.0</v>
-      </c>
-      <c r="L21">
-        <v>0.0</v>
-      </c>
-      <c r="M21">
-        <v>0.0</v>
-      </c>
-      <c r="N21">
-        <v>950.0</v>
-      </c>
-      <c r="O21">
-        <v>2400.0</v>
-      </c>
-      <c r="P21">
-        <v>800.0</v>
-      </c>
-      <c r="Q21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22">
-        <v>457.9</v>
-      </c>
-      <c r="B22">
-        <v>0.0</v>
-      </c>
-      <c r="C22">
-        <v>0.0</v>
-      </c>
-      <c r="D22">
-        <v>0.0</v>
-      </c>
-      <c r="E22">
-        <v>0.0</v>
-      </c>
-      <c r="F22">
-        <v>4446.0</v>
-      </c>
-      <c r="G22">
-        <v>0.0</v>
-      </c>
-      <c r="H22">
-        <v>0.0</v>
-      </c>
-      <c r="I22">
-        <v>2575.1</v>
-      </c>
-      <c r="J22">
-        <v>0.0</v>
-      </c>
-      <c r="K22">
-        <v>2002.0</v>
-      </c>
-      <c r="L22">
-        <v>0.0</v>
-      </c>
-      <c r="M22">
-        <v>0.0</v>
-      </c>
-      <c r="N22">
-        <v>950.0</v>
-      </c>
-      <c r="O22">
-        <v>2400.0</v>
-      </c>
-      <c r="P22">
-        <v>800.0</v>
-      </c>
-      <c r="Q22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23">
-        <v>457.9</v>
-      </c>
-      <c r="B23">
-        <v>0.0</v>
-      </c>
-      <c r="C23">
-        <v>0.0</v>
-      </c>
-      <c r="D23">
-        <v>0.0</v>
-      </c>
-      <c r="E23">
-        <v>0.0</v>
-      </c>
-      <c r="F23">
-        <v>4446.0</v>
-      </c>
-      <c r="G23">
-        <v>0.0</v>
-      </c>
-      <c r="H23">
-        <v>0.0</v>
-      </c>
-      <c r="I23">
-        <v>2009.1</v>
-      </c>
-      <c r="J23">
-        <v>0.0</v>
-      </c>
-      <c r="K23">
-        <v>2019.0</v>
-      </c>
-      <c r="L23">
-        <v>0.0</v>
-      </c>
-      <c r="M23">
-        <v>0.0</v>
-      </c>
-      <c r="N23">
-        <v>950.0</v>
-      </c>
-      <c r="O23">
-        <v>2400.0</v>
-      </c>
-      <c r="P23">
-        <v>800.0</v>
-      </c>
-      <c r="Q23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24">
-        <v>457.9</v>
-      </c>
-      <c r="B24">
-        <v>0.0</v>
-      </c>
-      <c r="C24">
-        <v>0.0</v>
-      </c>
-      <c r="D24">
-        <v>0.0</v>
-      </c>
-      <c r="E24">
-        <v>0.0</v>
-      </c>
-      <c r="F24">
-        <v>4446.0</v>
-      </c>
-      <c r="G24">
-        <v>0.0</v>
-      </c>
-      <c r="H24">
-        <v>0.0</v>
-      </c>
-      <c r="I24">
-        <v>1486.1</v>
-      </c>
-      <c r="J24">
-        <v>0.0</v>
-      </c>
-      <c r="K24">
-        <v>2002.0</v>
-      </c>
-      <c r="L24">
-        <v>0.0</v>
-      </c>
-      <c r="M24">
-        <v>0.0</v>
-      </c>
-      <c r="N24">
-        <v>950.0</v>
-      </c>
-      <c r="O24">
-        <v>2400.0</v>
-      </c>
-      <c r="P24">
-        <v>800.0</v>
-      </c>
-      <c r="Q24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25">
-        <v>457.9</v>
-      </c>
-      <c r="B25">
-        <v>0.0</v>
-      </c>
-      <c r="C25">
-        <v>0.0</v>
-      </c>
-      <c r="D25">
-        <v>0.0</v>
-      </c>
-      <c r="E25">
-        <v>0.0</v>
-      </c>
-      <c r="F25">
-        <v>4446.0</v>
-      </c>
-      <c r="G25">
-        <v>0.0</v>
-      </c>
-      <c r="H25">
-        <v>0.0</v>
-      </c>
-      <c r="I25">
-        <v>817.1</v>
-      </c>
-      <c r="J25">
-        <v>0.0</v>
-      </c>
-      <c r="K25">
-        <v>1971.0</v>
-      </c>
-      <c r="L25">
-        <v>0.0</v>
-      </c>
-      <c r="M25">
-        <v>0.0</v>
-      </c>
-      <c r="N25">
-        <v>950.0</v>
-      </c>
-      <c r="O25">
-        <v>2400.0</v>
-      </c>
-      <c r="P25">
-        <v>800.0</v>
-      </c>
-      <c r="Q25">
-        <v>0.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
